--- a/data/performance_sheets_option2/window2/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window2/BA47 Overall Model Peformance Results.xlsx
@@ -883,25 +883,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.40085768363254</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>21.40085768363254</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -971,25 +1007,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03763383958895779</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1504992981222304</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1945955457147209</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1939944318503956</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>21.55982312399258</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.03763832135576382</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1504784811858911</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1945501714557011</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1940059827834281</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>21.55630787268383</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -1513,25 +1585,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03247084585778274</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.14500544422009</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.194482311678487</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1801966865893564</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>20.83194218664812</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.032444243680351</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1459493802728665</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1959501747702642</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.18012285718462</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>20.9885148885057</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -1621,25 +1729,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02724786847829819</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1397253274917603</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2074087411165237</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.165069283872858</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.08050829172134</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.02734648622572422</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1339510530233383</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2023684680461884</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1653677303034791</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>20.18877565860748</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -1647,25 +1791,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01928835548460484</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1244455724954605</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1755021810531616</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1388825240431813</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>17.36668050289154</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01702816225588322</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1151930242776871</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1597456037998199</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1304920007352298</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>17.16304421424866</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -1673,25 +1853,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.03438081219792366</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1511721909046173</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2471420913934708</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1854206358470482</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>21.32581472396851</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.03300474211573601</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1377307027578354</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2024554312229156</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1816720730209682</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>19.55548524856567</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1982,25 +2198,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.2017972742216</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>14.2017972742216</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -2070,25 +2322,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.09335983032898311</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2734156622904971</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1184351786123934</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3055484091416336</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>11.56681897433462</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2232536813992681</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3744445784121971</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1446306864402369</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4724972818961694</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>14.84748623826422</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -2612,25 +2900,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.6014033269205097</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.7292374133129891</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3183359447703891</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7755019838275784</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>32.17444457366573</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>2.203781807061709</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>1.275860654100685</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.4821651652836991</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>1.484513996923474</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>72.72598412877075</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -2720,25 +3044,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2954631149768829</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3487683832645416</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2178731709718704</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5435651892614932</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>14.29997235536575</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.2740853428840637</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.332440197467804</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2084428668022156</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.523531606385005</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>14.28772062063217</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -2746,25 +3106,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06432868540287018</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1947094649076462</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07516473531723022</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2536310024481829</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>9.601414203643799</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.1113861873745918</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.276921272277832</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1034887656569481</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3337456926682228</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>9.784943610429764</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -2772,25 +3168,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2975050508975983</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3308157622814178</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2134412974119186</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5454402358623704</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>14.09088224172592</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.5472612380981445</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4655849635601044</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2956512868404388</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.7397710714120582</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>18.11265796422958</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3078,25 +3510,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.02166239305382</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.02166239305382</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -3166,25 +3634,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.09643960375608361</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2639106313830122</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1081264351601445</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3105472649309338</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>11.0513058029253</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3082943635388047</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3997470928835576</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1601350746143982</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5552426168251179</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>17.18264508710619</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -3708,25 +4212,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>5.017716497279014</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>2.147651385482959</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.8028543783757761</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>2.240026003705987</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>139.7471241570068</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>1.279615805339884</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.9762817320509301</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3683686742077462</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>1.131201045499819</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>49.19097794003034</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -3816,25 +4356,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1568879932165146</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2607287764549255</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1243405863642693</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3960908900953348</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.97674518823624</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1851715743541718</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2786993980407715</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1331361532211304</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.4303156682647888</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>10.92795133590698</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -3842,25 +4418,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1029054522514343</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2446740418672562</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.0938725471496582</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3207887969543736</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.607368171215057</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.09071711450815201</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2613780200481415</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.09599118679761887</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3011928194830548</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>9.137257188558578</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -3868,25 +4480,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.4683235585689545</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.5389207601547241</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2440349757671356</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6843416972309626</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>19.23303008079529</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>2.60690450668335</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.55822765827179</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.6293613910675049</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.614591126782056</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>45.69180905818939</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4174,25 +4822,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.834417109646166</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>7.834417109646166</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -4262,25 +4946,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.06639747858404663</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2151285276866355</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.07714507823956784</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2576770819922615</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>8.142411052282148</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3561955119100291</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4765276134986741</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1772843426664136</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5968211724713099</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>16.57446021350125</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -4804,25 +5524,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.144971783824377</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.9780075685174017</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3474235202912341</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.070033543317394</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>43.86579806774413</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.7028819507798472</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.6798555195809703</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2448619062404099</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.8383805524818948</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>30.72969510121753</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -4912,25 +5668,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05915462225675583</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2092427909374237</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.07557915896177292</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.243217232647598</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>7.505277544260025</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.07688132673501968</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2179407775402069</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.07777933031320572</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2772748216752103</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>7.784462720155716</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -4938,25 +5730,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.119009718298912</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2991862893104553</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1067656576633453</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3449778518961936</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.380004227161407</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02103918790817261</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1075395867228508</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.03828480094671249</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1450489155704813</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>6.257156282663345</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -4964,25 +5792,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.050435304641724</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.9868987202644348</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3667373657226562</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.024907461501634</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>30.49578368663788</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.109849452972412</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.019325971603394</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3778202533721924</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.05349392640509</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>31.31612837314606</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5268,25 +6132,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06859894567387627</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2055512775088583</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.556526981460877</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2619140043485195</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>38.85695434189066</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06859894567387627</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2055512775088583</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.556526981460877</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2619140043485195</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>38.85695434189066</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -5356,25 +6256,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4193856260152439</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5973340539100465</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.647599896552836</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>200</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.4014295826425991</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5821098939100463</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.9455999238114763</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.6335847083402496</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>182.5663168470839</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -5898,25 +6834,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.07484681951638376</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2134170232314372</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.644640430905179</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2735814677868071</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>39.618228844836</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.07484681951638376</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2134170232314372</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.644640430905179</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2735814677868071</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>39.618228844836</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -6006,25 +6978,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06631806492805481</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1970517039299011</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.397451758384705</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.257522940585989</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>40.31057953834534</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.06582744419574738</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1970707476139069</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.403590321540833</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2565685954978656</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>43.46902966499329</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -6032,25 +7040,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.08550458401441574</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2261305451393127</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.9320101737976074</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2924116687384684</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>39.89415466785431</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05584393441677094</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1751873791217804</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.75838702917099</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2363132125311044</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>35.71296036243439</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -6058,25 +7102,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1326272934675217</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3110083341598511</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.079946160316467</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3641803035139622</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>67.67618656158447</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1018027886748314</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2644627094268799</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.433039784431458</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3190654927672866</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>52.0896852016449</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6362,25 +7442,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05986187363128842</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1511563789635068</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.702263679144231</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2446668625525092</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.16683562275372</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06230538375834057</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1571840546752714</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.783102039701544</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2496104640401531</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>31.52625265009917</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -6450,25 +7566,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>4811.977110532675</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>59.10480237912292</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>215.3769136619649</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>69.36841579950256</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>195.0635171818143</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.04990420005153796</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1690775027505986</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.485266414210569</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2233924798455355</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>35.34918024308288</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -6992,25 +8144,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05692547314024313</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1591915327978086</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.647364282666746</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2385905973424836</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>31.55766289590066</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05083991687755052</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1455042699550831</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.599666454997916</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2254770872562233</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>29.79174019936112</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -7100,25 +8288,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.09086253494024277</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2465444654226303</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.475628614425659</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3014341303506336</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>72.71609306335449</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1468938142061234</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3031841218471527</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.876881718635559</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3832672882025328</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>45.2384889125824</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -7126,25 +8350,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.102172926068306</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2324559986591339</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.7182261347770691</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3196450000677407</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>67.41887331008911</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05950634926557541</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1768609881401062</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.7155882716178894</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2439392327313821</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>44.23592984676361</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -7152,25 +8412,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>26142.267578125</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>117.3166656494141</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>449.9990844726562</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>161.6857061651555</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>196.5950727462769</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1565725803375244</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.3360943794250488</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.752225518226624</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3956925325774097</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>72.78333306312561</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7456,25 +8752,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.09523579057937015</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1860972853777647</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.072632686313288</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3086029659276951</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>31.71909051771148</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'random', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 70, 'max_features': 'log2', 'max_depth': 16, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1103032197029432</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2389141386875211</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>2.109518864994992</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3321192853523313</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>39.73773633687732</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -7544,25 +8876,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3858900725342742</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5907627481667352</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.176503833387134</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6212005091226779</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>164.1752082151972</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.6842141170941715</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.6318760185563018</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>2.002592956433329</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.8271723623853564</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>118.1620012892488</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -8086,25 +9454,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06477210030757304</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1713811898496335</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.757976072222</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.254503635155911</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>32.12915789503808</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05827404846741133</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.163183969490677</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.756983062863264</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2414001832381478</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>31.19546928112744</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -8194,25 +9598,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0815085768699646</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2287299335002899</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.673096060752869</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2854970698097699</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>56.92907571792603</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.08050532639026642</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2238587439060211</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.8148134350776672</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2837346055564361</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>56.69451951980591</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -8220,25 +9660,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.07819803804159164</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1813946962356567</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.6829272508621216</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2796391210857158</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>40.50498008728027</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.06220255419611931</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1716984957456589</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.6183860898017883</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.249404398910924</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>39.9670273065567</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -8246,25 +9722,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3393316268920898</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.452280193567276</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2.28300929069519</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5825217823327209</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>64.43440318107605</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>2.865679025650024</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.115336418151855</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>3.933254957199097</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.69283165898149</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>95.26330232620239</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8550,25 +10062,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.7489022261507635</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3833229294343239</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6568337742657995</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8653913716641526</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>18.57168043920147</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.7489022261507635</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3833229294343239</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6568337742657995</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.8653913716641526</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>18.57168043920147</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -8638,25 +10186,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.58905079044966</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.485701849945823</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.566914644169077</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>200</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 2000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 0.15, 'fit_intercept': False, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>125.1503507125685</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>9.510532986507542</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>4.852911560285423</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>11.18706175510659</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>131.081905681019</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -9180,25 +10764,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.6701166026516419</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3700900042554964</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6280550073787261</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.8186065004943718</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>18.45698402398672</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.6762162164075802</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.363929605783777</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.6283808218570994</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.8223236688844486</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>18.19305588740395</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -9288,25 +10908,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.8874229788780212</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.7948643565177917</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.6243221759796143</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.9420313046167952</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>36.97966039180756</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.7934713959693909</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.5175591707229614</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.704592764377594</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.8907701139853037</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>24.02986288070679</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -9314,25 +10970,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.6978803873062134</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.577753484249115</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.5978219509124756</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.8353923553075007</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>26.12098455429077</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.4835299253463745</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.4844776391983032</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.5743855834007263</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.6953631607630465</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>20.14741748571396</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -9340,25 +11032,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.893791317939758</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.9563990831375122</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.000044226646423</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.376150906674031</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>34.89705324172974</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>2.106740236282349</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.050598740577698</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.0596843957901</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.451461413983282</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>37.8174901008606</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9644,25 +11372,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.7071717854332346</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4318818738126662</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6634360082505488</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8409350661217753</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>20.92225005405011</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.6915869264325225</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.468374383415217</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6607284450859555</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.8316170551597186</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>22.3845536474005</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -9732,25 +11496,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>285.2743243458844</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>15.09827344545834</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>9.198632504130543</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>16.8900658478848</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>149.9069714961325</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>5.905237250956609</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>2.266072639036602</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.9503591857139283</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>2.43006939221015</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>147.3400253498036</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -10274,25 +12074,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.6821118226234973</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.4076763987794984</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6705056708900476</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.8259006130422094</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>20.16848093984773</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.6234993670634158</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3676063867349738</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.6084047968119913</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.7896197610644099</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>18.54238445159354</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -10382,25 +12218,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6265352368354797</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4491729438304901</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.622826099395752</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.7915397885359142</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>25.41819214820862</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.7678157091140747</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.5207904577255249</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.6903554201126099</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.8762509395795675</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>23.57866019010544</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -10408,25 +12280,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1725.500732421875</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>31.79582786560059</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>16.58169555664062</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>41.53914698717193</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>200</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.3006011247634888</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.3292779326438904</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.4754952192306519</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.5482710322126172</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>18.44528466463089</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -10434,25 +12342,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2856.712890625</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>39.01899719238281</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>24.1259880065918</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>53.4482262626647</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>175.5948543548584</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.360065698623657</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.8005831837654114</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.9088812470436096</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.166218546681392</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>33.64904522895813</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10738,25 +12682,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.672366185836622</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4596657211954301</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3795317704553525</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8199793813484715</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.56715269209275</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.7563544333389681</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.42892628093809</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3811458218663171</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.8696863994216353</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>20.57665236034062</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -10826,25 +12806,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.5421385820083997</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3246346341398593</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3105415409511844</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.7363006057368143</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>16.66805514719914</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>6.61763668584692</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>2.501593190320899</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.039003823492317</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>2.572476760992588</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>174.0271719393158</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -11368,25 +13384,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5758379768200454</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3742812446145128</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3359811207155414</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7588398887908078</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>18.58659158997278</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.6598130188278361</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.4134751354274766</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.360841132675365</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.8122887533555023</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>20.24196947614101</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -11476,25 +13528,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.7336752414703369</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5144794583320618</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.40315842628479</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.8565484466568933</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>21.98343127965927</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.7420217990875244</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.4934975802898407</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.4014781713485718</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.8614068719760276</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>22.24935293197632</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -11502,25 +13590,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2929070293903351</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3409501314163208</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2069282382726669</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.541208859305107</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>16.78120791912079</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.3891266286373138</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.4542139172554016</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2237871736288071</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.6238001512001371</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>22.00211435556412</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -11528,25 +13652,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.9248729348182678</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.5073974132537842</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.4346371293067932</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.9617031427723775</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>22.28770554065704</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>109.0424346923828</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>8.300724029541016</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>4.232779502868652</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>10.44233856434385</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>146.9706892967224</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11796,13 +13956,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.40085768363254</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -11866,13 +14044,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03569713729591532</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1445734732232896</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1859402920328705</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1889368606066993</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>20.58810486503038</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -12282,13 +14478,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.02778150037787732</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1319729535441178</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1807014114008922</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1666778340928311</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>19.1316643248931</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -12390,13 +14604,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02801901660859585</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.145381286740303</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2136626541614532</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1673888186486656</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.10460644960403</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -12416,13 +14648,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02074804902076721</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1220365092158318</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1614972501993179</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.144041830801914</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>17.12673753499985</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -12442,13 +14692,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05642420798540115</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1966959834098816</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3251505196094513</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2375378032764494</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>26.60899758338928</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -12746,25 +15014,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.02689824965358115</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1269589042499646</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.3224610133514452</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1640068585565285</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>22.46163430177055</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05396811629456583</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1842442790310237</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.5103780368010534</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2323103878318097</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>30.89228775050308</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -12834,25 +15138,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04368284005355472</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1614177373331092</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2982678972472317</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2090044019956391</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>27.78409142910181</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.04368432577610153</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1614203752158277</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2982881771612452</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2090079562507168</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>27.78501467164678</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -13376,25 +15716,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03794521105237865</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1495221756607202</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3836669837846137</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1947953055193545</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>25.85661410879682</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.03784896384818334</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1491583366869997</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3798236162997524</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1945481016308906</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>25.79848454064602</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -13484,25 +15860,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0582987517118454</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1889524310827255</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5875173807144165</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2414513443985049</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>30.28496205806732</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05275263264775276</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.186959445476532</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.5398842692375183</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.229679412764298</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>30.28132915496826</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -13510,25 +15922,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02385682426393032</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1211547553539276</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1892408132553101</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1544565449048059</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>24.14105534553528</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01747315935790539</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.104738786816597</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.154111310839653</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1321860785328977</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>33.0450028181076</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -13536,25 +15984,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05086634680628777</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1899711638689041</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.4848743379116058</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2255356885423851</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>32.95240104198456</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.06439254432916641</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2102705091238022</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.4609827995300293</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.25375686065438</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>36.14160120487213</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13804,13 +16288,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>26.8385981240602</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -13874,13 +16376,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.08153130775767115</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2490129266374416</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.422765260631271</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2855368763534251</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>37.27629010825425</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -14290,13 +16810,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.02748870088239512</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1319707991169879</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2335832605989801</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1657971678961831</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>21.2569252864428</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -14398,13 +16936,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04285915195941925</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1617514044046402</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3662818968296051</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2070245201888396</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>26.23275518417358</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -14424,13 +16980,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03575026616454124</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1564499735832214</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2350321561098099</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1890774078639255</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>29.71101701259613</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -14450,13 +17024,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04020470008254051</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1578002572059631</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.361353874206543</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2005110971555951</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>24.35674071311951</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -14718,13 +17310,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05396811629456583</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1842442790310237</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.5103780368010534</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2323103878318097</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.89228775050308</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -14788,13 +17398,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.06118280541077157</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2014698754860512</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3414874813718003</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2473515825920092</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>32.68423181210689</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -15204,13 +17832,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03810302324026226</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1508066288156122</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4082291598764175</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1951999570703392</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>25.98398751101334</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -15312,13 +17958,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05105108767747879</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.189114049077034</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5276942849159241</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2259448775198915</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>30.87762296199799</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -15338,13 +18002,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04142757132649422</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1517553180456161</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2501889765262604</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2035376410556392</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>29.37591373920441</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -15364,13 +18046,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2703464329242706</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4586922824382782</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.7086647748947144</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5199484906452471</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>103.8904309272766</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -15632,13 +18332,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.834417109646166</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -15702,13 +18420,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1724842860666826</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3460490700451048</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1189552117056649</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4153122753623863</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.96461974067126</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -16118,13 +18854,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.2610313471757773</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3369016786693642</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1242756303832841</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.5109122695490659</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>14.90432825846339</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -16226,13 +18980,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0630769357085228</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2060992866754532</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.07561272382736206</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2511512207983923</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>7.346656918525696</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -16252,13 +19024,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04704995825886726</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1913062334060669</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.06715103983879089</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2169100234172392</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.022340431809425</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -16278,13 +19068,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.08460687100887299</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2325513958930969</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.08952399343252182</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.290872602712722</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>8.387676626443863</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -16546,13 +19354,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.02166239305382</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -16616,13 +19442,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2297308723303605</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3913141357776261</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1563646991258796</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4793024852119593</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>15.57141176270479</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -17032,13 +19876,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.7433378877195518</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.5922716788478559</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2274472838124417</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.8621704516622869</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>30.5309877600662</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -17140,13 +20002,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1602076888084412</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2759581208229065</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1283445954322815</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.40025952681784</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.69748997688293</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -17166,13 +20046,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05165959894657135</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1964607536792755</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.0725032240152359</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2272874808399516</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.366982102394104</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -17192,13 +20090,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1853016465902328</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2934201955795288</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.139528900384903</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4304667775685284</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>11.51334345340729</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -17460,13 +20376,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.2017972742216</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -17530,13 +20464,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2981000639644403</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4273607569762428</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2197904417339203</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5459854063658115</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>18.14389646515475</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -17946,13 +20898,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.4532128801655349</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.5315301459515523</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2246845201646838</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.6732108734754177</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>23.12557239930341</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -18054,13 +21024,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2676971852779388</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.321606457233429</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2040140926837921</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5173946127260496</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>13.87366205453873</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -18080,13 +21068,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.07808880507946014</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2194456160068512</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08517317473888397</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2794437422442309</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.843638747930527</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -18106,13 +21112,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2899795472621918</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3335196375846863</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2124784588813782</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5384974904882954</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>14.23176974058151</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -18410,25 +21434,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>26.8385981240602</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>26.8385981240602</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -18498,25 +21558,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02956122128680362</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1208428424580751</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2096288611747208</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1719337700592982</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>19.05816616250095</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.02957115077465156</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1209080136496354</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2097097453164751</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1719626435440313</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>19.06945434884061</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -19040,25 +22136,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.02240670554241686</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.118237010808484</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2153444065580182</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1496886954396252</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>19.24583031762322</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.02247325104091318</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1189721923157131</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2164989232034805</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1499108102870276</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>19.37967130175909</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -19148,25 +22280,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04010416567325592</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1605589091777802</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3597183525562286</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2002602448646658</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>25.93789994716644</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.03875037655234337</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1599301844835281</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3449511528015137</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1968511532918803</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>25.9611189365387</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -19174,25 +22342,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01180949527770281</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.08561910688877106</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1153177693486214</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1086715016814565</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>24.92545247077942</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01164913177490234</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.07771909236907959</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1005955189466476</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1079311436745777</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>25.85778534412384</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -19200,25 +22404,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05273775011301041</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1754988878965378</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3680182695388794</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.229647011983632</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>28.23819220066071</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04690276086330414</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1704476177692413</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2851786911487579</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2165704524243881</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>28.75521183013916</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19504,25 +22744,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.834417109646166</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>7.834417109646166</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -19592,25 +22868,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1628636131495593</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3377979361388703</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1161271166519597</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4035636420065109</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.60852895859375</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.1629166628979162</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3378819569819906</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1161572804640655</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4036293632751664</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>12.61196874190604</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -20134,25 +23446,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.230697619217411</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2855183432398787</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.09542761833634698</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.480309919965652</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>11.01373594577751</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.1037189566533299</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2689539436177436</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.09391019593048952</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.3220542759432483</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>10.02378404803493</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -20242,25 +23590,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06091503798961639</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1983271986246109</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.07331990450620651</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2468097202089423</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>7.396182417869568</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05663740634918213</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1942615956068039</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.07107166200876236</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2379861473892591</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>7.262742519378662</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -20268,25 +23652,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03909002244472504</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1719421297311783</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.06105056777596474</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1977119683901939</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.001884490251541</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.04189397767186165</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1798402965068817</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.06357772648334503</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2046801838768513</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>6.001822277903557</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -20294,25 +23714,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2113572508096695</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4102567434310913</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1431717127561569</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4597360664660425</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>15.63602685928345</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.09789850562810898</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.266923189163208</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.09514795243740082</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3128873689174892</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>9.842506796121597</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -20599,25 +24055,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.2017972742216</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>14.2017972742216</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -20687,25 +24179,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2959787871631911</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4230976134393362</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2192790157511738</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5440393250153808</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>17.94760461580853</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2959152541837547</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4230847932628211</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2192397017284543</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5439809318199993</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>17.94733999142397</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -21229,25 +24757,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.3539665304649598</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.41953007530234</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.180733668339308</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.5949508639080708</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>18.53016633221354</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.1855823837261693</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3023885401146235</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.166411239417908</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.4307927387110527</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>13.33257896217994</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -21337,25 +24901,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2733067572116852</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3405292928218842</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2088231891393661</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5227874876196686</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>14.01854455471039</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.2764570116996765</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3355039060115814</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.209111288189888</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.5257917950098465</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>13.90849053859711</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -21363,25 +24963,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.08342648297548294</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2268480658531189</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08914051949977875</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2888364294466385</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.690225332975388</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.08780659735202789</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2313310354948044</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.09158844500780106</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2963217800837932</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>8.760824799537659</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -21389,25 +25025,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3324917852878571</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3673993647098541</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2326000928878784</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5766210066307479</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>15.27055650949478</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.2766679227352142</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.3290847539901733</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2109503895044327</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.5259923219356099</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>14.07394111156464</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -21694,25 +25366,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.02166239305382</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.02166239305382</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -21782,25 +25490,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2172884665480757</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3810737767610329</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1533203234434002</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4661421098206808</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>15.11311612044268</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2172013511488236</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3810080822918693</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1532743777513721</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4660486574906353</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>15.11054213237496</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -22324,25 +26068,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.160582120715858</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2762904544740852</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.10623312210171</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.4007269902512907</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>11.13618774031245</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.1329967440077382</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2777356004320552</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1042812585787491</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.3646871865143306</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>11.00004047901087</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -22432,25 +26212,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1663714051246643</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2910134494304657</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1314902454614639</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4078865101038086</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>11.6689071059227</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.158625066280365</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2685058414936066</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1258935928344727</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3982776246293093</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>10.78678891062737</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -22458,25 +26274,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05594224110245705</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1997840106487274</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07452362030744553</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2365211218949738</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.427146285772324</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05447918921709061</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1991271525621414</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.07382726669311523</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2334077745429458</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>7.375483214855194</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -22484,25 +26336,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1399093866348267</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2707732319831848</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1209690198302269</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.374044631875431</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>10.7589915394783</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1809796243906021</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2745779454708099</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1323144733905792</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.4254170005895417</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>10.83806306123734</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -22791,25 +26679,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.40085768363254</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>21.40085768363254</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -22879,25 +26803,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03938121886633782</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1552905533417446</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2024067189077477</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1984470177814165</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>22.34177862743551</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.0393789356070578</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1552816944951753</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2023994086926715</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1984412648797064</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>22.34032243057923</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -23421,25 +27381,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03870024335957101</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.155308924132958</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.204021274399817</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1967237742611986</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>22.3531539111753</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.03891873670183514</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1675713385860982</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2346888227487481</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1972783229395342</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>24.48542361552281</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -23529,25 +27525,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0293405968695879</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1445633918046951</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.215103805065155</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1712909713603957</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.05238384008408</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.02801270224153996</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1412692815065384</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2102108746767044</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1673699562094104</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>20.10428905487061</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -23555,25 +27587,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02265950106084347</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1330606341362</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.19407619535923</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1505307312838261</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>18.0351510643959</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02097250893712044</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1251889318227768</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1784517765045166</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.144818883220112</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>17.17744469642639</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -23581,25 +27649,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.02970136888325214</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1504738181829453</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2373290508985519</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1723408508835098</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>21.40867859125137</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.02693644911050797</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1427768617868423</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2119922637939453</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1641232741280406</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>20.40010392665863</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23889,25 +27993,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05396811629456583</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1842442790310237</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.5103780368010534</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2323103878318097</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.89228775050308</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="15" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05396811629456583</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1842442790310237</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.5103780368010534</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2323103878318097</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>30.89228775050308</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -23977,25 +28117,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.05683083740970286</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1893323596850643</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4904682377202668</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2383921924260584</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>31.85651376486168</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.05681376712594938</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1892826425416491</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.490581827901119</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2383563867949617</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>31.84717075012515</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -24519,25 +28695,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05336847545196241</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.18477614599861</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.5083244867554495</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2310161800652985</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>31.05594485047248</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05747767375307843</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1905682672574251</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.4941894224957669</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2397450182028366</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>32.04034218100848</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -24627,25 +28839,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05418019369244576</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1841052323579788</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5617623329162598</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2327663929617971</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>30.13171553611755</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.0544058121740818</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1838089525699615</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.5691165924072266</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2332505352064209</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>30.27904629707336</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -24653,25 +28901,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03640297427773476</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1586998254060745</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2822378575801849</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1907956348497909</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>23.66518527269363</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03000623174011707</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1442112475633621</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2585746645927429</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1732230693069404</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>23.92433732748032</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -24679,25 +28963,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05638720095157623</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1825238466262817</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5878146290779114</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.237459893353754</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>30.00441193580627</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.06264910101890564</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1987478286027908</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.6367804408073425</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2502980244007244</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>32.08735585212708</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24985,25 +29305,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>26.8385981240602</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>26.8385981240602</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -25073,25 +29429,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04733033673323182</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1730580335739963</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3304677903141557</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2175553647539674</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>27.71491264553452</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.04730423024527435</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1730006532368493</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.3303464207948387</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2174953568361273</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>27.70598286907697</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -25615,25 +30007,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.04782404615145833</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1742824912945103</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3331198320609985</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2186870964448025</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>27.90827569288556</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.04782404615145833</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1742824912945103</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3331198320609985</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2186870964448025</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>27.90827569288556</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -25723,25 +30151,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04161060228943825</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1625456362962723</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3648449778556824</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2039867698882412</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>25.97399950027466</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.04193447902798653</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1606728136539459</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3714436888694763</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.204779098122798</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>26.13101005554199</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -25749,25 +30213,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03615409135818481</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1688872873783112</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2666582465171814</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1901422923975222</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>21.40162587165833</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.0395360104739666</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.173317089676857</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2762783765792847</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1988366426843066</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>21.48848474025726</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -25775,25 +30275,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05617662891745567</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1887515485286713</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.4589863419532776</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.237016094216101</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>28.82263660430908</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04249851405620575</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1631501615047455</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3824652433395386</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2061516773063119</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>25.8190780878067</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/performance_sheets_option2/window2/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window2/BA47 Overall Model Peformance Results.xlsx
@@ -1798,23 +1798,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01928835548460484</v>
+        <v>0.01603514514863491</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1244455724954605</v>
+        <v>0.1136814206838608</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1755021810531616</v>
+        <v>0.1578518599271774</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1388825240431813</v>
+        <v>0.1266299535995923</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.36668050289154</v>
+        <v>15.25055021047592</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01702816225588322</v>
+        <v>0.01963426172733307</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1151930242776871</v>
+        <v>0.1242678686976433</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1597456037998199</v>
+        <v>0.1703463047742844</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1304920007352298</v>
+        <v>0.1401223098843759</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.16304421424866</v>
+        <v>16.63400828838348</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3117,19 +3117,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06432868540287018</v>
+        <v>0.1007676646113396</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1947094649076462</v>
+        <v>0.2603095173835754</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07516473531723022</v>
+        <v>0.101938009262085</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2536310024481829</v>
+        <v>0.3174392297926322</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.601414203643799</v>
+        <v>9.71074178814888</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3143,23 +3143,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1113861873745918</v>
+        <v>0.1087400689721107</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.276921272277832</v>
+        <v>0.2742898464202881</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1034887656569481</v>
+        <v>0.101225808262825</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3337456926682228</v>
+        <v>0.3297575912274208</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>9.784943610429764</v>
+        <v>10.2421835064888</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4425,23 +4425,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1029054522514343</v>
+        <v>0.04382182285189629</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2446740418672562</v>
+        <v>0.1755076050758362</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0938725471496582</v>
+        <v>0.0640600323677063</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3207887969543736</v>
+        <v>0.2093366256819295</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.607368171215057</v>
+        <v>6.343772262334824</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4455,23 +4455,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.09071711450815201</v>
+        <v>0.07029517740011215</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2613780200481415</v>
+        <v>0.2093479484319687</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.09599118679761887</v>
+        <v>0.07942407578229904</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3011928194830548</v>
+        <v>0.2651323771252997</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>9.137257188558578</v>
+        <v>7.620305567979813</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5741,19 +5741,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.119009718298912</v>
+        <v>0.03083438985049725</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2991862893104553</v>
+        <v>0.1425838321447372</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1067656576633453</v>
+        <v>0.0493103601038456</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3449778518961936</v>
+        <v>0.175597237593583</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.380004227161407</v>
+        <v>4.965008795261383</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5767,23 +5767,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02103918790817261</v>
+        <v>0.0890580341219902</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1075395867228508</v>
+        <v>0.2324785590171814</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.03828480094671249</v>
+        <v>0.08393572270870209</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1450489155704813</v>
+        <v>0.2984259273622019</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.257156282663345</v>
+        <v>8.124686032533646</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7051,19 +7051,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08550458401441574</v>
+        <v>0.05946274846792221</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2261305451393127</v>
+        <v>0.1737502813339233</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9320101737976074</v>
+        <v>0.7749665975570679</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2924116687384684</v>
+        <v>0.2438498482015566</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>39.89415466785431</v>
+        <v>31.47228360176086</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7077,23 +7077,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05584393441677094</v>
+        <v>0.07934296131134033</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1751873791217804</v>
+        <v>0.2120840698480606</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.75838702917099</v>
+        <v>0.9096825122833252</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2363132125311044</v>
+        <v>0.2816788265229396</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>35.71296036243439</v>
+        <v>36.13471388816833</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8357,23 +8357,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.102172926068306</v>
+        <v>0.042178925126791</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2324559986591339</v>
+        <v>0.1315242648124695</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7182261347770691</v>
+        <v>0.6070029735565186</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3196450000677407</v>
+        <v>0.2053750839970394</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>67.41887331008911</v>
+        <v>25.40335953235626</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8387,23 +8387,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05950634926557541</v>
+        <v>0.08612826466560364</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1768609881401062</v>
+        <v>0.2056093066930771</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.7155882716178894</v>
+        <v>0.9229590892791748</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2439392327313821</v>
+        <v>0.2934761739317242</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>44.23592984676361</v>
+        <v>36.14147007465363</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9667,53 +9667,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1010844185948372</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2444630563259125</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.7188448905944824</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3179377589951171</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>37.90042698383331</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.07819803804159164</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.1813946962356567</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.6829272508621216</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.2796391210857158</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>40.50498008728027</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.06220255419611931</v>
+        <v>0.04947294667363167</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1716984957456589</v>
+        <v>0.166869729757309</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6183860898017883</v>
+        <v>0.5056617856025696</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.249404398910924</v>
+        <v>0.2224251484738892</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>39.9670273065567</v>
+        <v>27.57470905780792</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -10981,19 +10981,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6978803873062134</v>
+        <v>0.4640387296676636</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.577753484249115</v>
+        <v>0.4619880020618439</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5978219509124756</v>
+        <v>0.5452018976211548</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8353923553075007</v>
+        <v>0.6812038825987882</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.12098455429077</v>
+        <v>20.22195607423782</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11007,23 +11007,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4835299253463745</v>
+        <v>0.4473089277744293</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4844776391983032</v>
+        <v>0.4490706920623779</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5743855834007263</v>
+        <v>0.5514656901359558</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6953631607630465</v>
+        <v>0.6688115786785015</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>20.14741748571396</v>
+        <v>19.9310764670372</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12291,19 +12291,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1725.500732421875</v>
+        <v>24.25880813598633</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>31.79582786560059</v>
+        <v>4.069395542144775</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16.58169555664062</v>
+        <v>2.073346138000488</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>41.53914698717193</v>
+        <v>4.925323150412197</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>200</v>
+        <v>172.1836566925049</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12321,19 +12321,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.3006011247634888</v>
+        <v>0.2863776385784149</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3292779326438904</v>
+        <v>0.3374359905719757</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4754952192306519</v>
+        <v>0.5345883369445801</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5482710322126172</v>
+        <v>0.5351426338635475</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.44528466463089</v>
+        <v>15.24129062891006</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13597,53 +13597,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.239051878452301</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2367361187934875</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1669884771108627</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.4889293184625985</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.78145131468773</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.2929070293903351</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.3409501314163208</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.2069282382726669</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.541208859305107</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>16.78120791912079</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.3891266286373138</v>
+        <v>0.3162937164306641</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4542139172554016</v>
+        <v>0.4008381962776184</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2237871736288071</v>
+        <v>0.2191076725721359</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6238001512001371</v>
+        <v>0.5623999612648138</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>22.00211435556412</v>
+        <v>16.74092710018158</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -14655,23 +14655,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02074804902076721</v>
+        <v>0.01711390726268291</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1220365092158318</v>
+        <v>0.1092982962727547</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1614972501993179</v>
+        <v>0.13975490629673</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.144041830801914</v>
+        <v>0.1308201332466945</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.12673753499985</v>
+        <v>14.48028683662415</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15929,23 +15929,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02385682426393032</v>
+        <v>0.0194854699075222</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1211547553539276</v>
+        <v>0.1062620133161545</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1892408132553101</v>
+        <v>0.1525258123874664</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1544565449048059</v>
+        <v>0.1395903646657684</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>24.14105534553528</v>
+        <v>14.8888498544693</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15963,19 +15963,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01747315935790539</v>
+        <v>0.01841973513364792</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.104738786816597</v>
+        <v>0.0970342680811882</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.154111310839653</v>
+        <v>0.133920356631279</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1321860785328977</v>
+        <v>0.1357193248349251</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>33.0450028181076</v>
+        <v>13.74229937791824</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -16987,23 +16987,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03575026616454124</v>
+        <v>0.01404757797718048</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1564499735832214</v>
+        <v>0.09495721012353897</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2350321561098099</v>
+        <v>0.1234016418457031</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1890774078639255</v>
+        <v>0.1185224787843238</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>29.71101701259613</v>
+        <v>13.06931972503662</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18013,19 +18013,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04142757132649422</v>
+        <v>0.0523516908288002</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1517553180456161</v>
+        <v>0.1856107711791992</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2501889765262604</v>
+        <v>0.2489637136459351</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2035376410556392</v>
+        <v>0.2288049187163602</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>29.37591373920441</v>
+        <v>30.20176589488983</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19035,19 +19035,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04704995825886726</v>
+        <v>0.05063328146934509</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1913062334060669</v>
+        <v>0.1992238312959671</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06715103983879089</v>
+        <v>0.07007512450218201</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2169100234172392</v>
+        <v>0.2250184025126503</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.022340431809425</v>
+        <v>7.046805322170258</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20053,23 +20053,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05165959894657135</v>
+        <v>0.05626450851559639</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1964607536792755</v>
+        <v>0.2040554136037827</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0725032240152359</v>
+        <v>0.07605891674757004</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2272874808399516</v>
+        <v>0.2372014091770881</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.366982102394104</v>
+        <v>7.395365089178085</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21075,23 +21075,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07808880507946014</v>
+        <v>0.0927153155207634</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2194456160068512</v>
+        <v>0.2359084188938141</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08517317473888397</v>
+        <v>0.09319734573364258</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2794437422442309</v>
+        <v>0.3044918972990306</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.843638747930527</v>
+        <v>8.797065913677216</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22353,19 +22353,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01180949527770281</v>
+        <v>0.01056920923292637</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08561910688877106</v>
+        <v>0.08503955602645874</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1153177693486214</v>
+        <v>0.1206651479005814</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1086715016814565</v>
+        <v>0.1028066594775181</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>24.92545247077942</v>
+        <v>11.71364113688469</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22383,19 +22383,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01164913177490234</v>
+        <v>0.01181071810424328</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.07771909236907959</v>
+        <v>0.07822827994823456</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1005955189466476</v>
+        <v>0.1006086394190788</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1079311436745777</v>
+        <v>0.1086771277879724</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>25.85778534412384</v>
+        <v>10.15447452664375</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -23659,23 +23659,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03909002244472504</v>
+        <v>0.04435235634446144</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1719421297311783</v>
+        <v>0.1851544827222824</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06105056777596474</v>
+        <v>0.06546683609485626</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1977119683901939</v>
+        <v>0.2105999913211334</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.001884490251541</v>
+        <v>6.544595956802368</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23689,23 +23689,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04189397767186165</v>
+        <v>0.04221638664603233</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1798402965068817</v>
+        <v>0.1811918914318085</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.06357772648334503</v>
+        <v>0.06400420516729355</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2046801838768513</v>
+        <v>0.2054662664430157</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.001822277903557</v>
+        <v>6.404886394739151</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -24974,19 +24974,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08342648297548294</v>
+        <v>0.08840664476156235</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2268480658531189</v>
+        <v>0.2361767143011093</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08914051949977875</v>
+        <v>0.09258943051099777</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2888364294466385</v>
+        <v>0.2973325491122059</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.690225332975388</v>
+        <v>8.810117095708847</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25004,19 +25004,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.08780659735202789</v>
+        <v>0.08767621219158173</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2313310354948044</v>
+        <v>0.2316341251134872</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.09158844500780106</v>
+        <v>0.09146047383546829</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2963217800837932</v>
+        <v>0.2961016923146197</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.760824799537659</v>
+        <v>8.645883947610855</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26285,19 +26285,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05594224110245705</v>
+        <v>0.05367803573608398</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1997840106487274</v>
+        <v>0.1988672763109207</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07452362030744553</v>
+        <v>0.07361089438199997</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2365211218949738</v>
+        <v>0.2316852082807273</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.427146285772324</v>
+        <v>7.21040740609169</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26311,23 +26311,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05447918921709061</v>
+        <v>0.05764026194810867</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1991271525621414</v>
+        <v>0.2070377469062805</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07382726669311523</v>
+        <v>0.0763528048992157</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2334077745429458</v>
+        <v>0.2400838644059793</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.375483214855194</v>
+        <v>7.502324879169464</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27594,53 +27594,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01948274485766888</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1204136088490486</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1715534180402756</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1395806034435619</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>16.1746621131897</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.02265950106084347</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.1330606341362</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.19407619535923</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.1505307312838261</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>18.0351510643959</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.02097250893712044</v>
+        <v>0.02170533873140812</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1251889318227768</v>
+        <v>0.130597397685051</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1784517765045166</v>
+        <v>0.1892092823982239</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.144818883220112</v>
+        <v>0.1473273183473049</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.17744469642639</v>
+        <v>17.48022437095642</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28908,23 +28908,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03640297427773476</v>
+        <v>0.03908538073301315</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1586998254060745</v>
+        <v>0.1670395731925964</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2822378575801849</v>
+        <v>0.295516312122345</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1907956348497909</v>
+        <v>0.1977002294713214</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.66518527269363</v>
+        <v>24.31046068668365</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28942,19 +28942,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03000623174011707</v>
+        <v>0.04155771061778069</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1442112475633621</v>
+        <v>0.1715260446071625</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2585746645927429</v>
+        <v>0.3090696632862091</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1732230693069404</v>
+        <v>0.2038570838057404</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>23.92433732748032</v>
+        <v>24.83964562416077</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30224,19 +30224,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03615409135818481</v>
+        <v>0.0294135045260191</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1688872873783112</v>
+        <v>0.147099494934082</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2666582465171814</v>
+        <v>0.237224817276001</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1901422923975222</v>
+        <v>0.1715036574712595</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>21.40162587165833</v>
+        <v>20.83816677331924</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30250,23 +30250,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0395360104739666</v>
+        <v>0.02666922472417355</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.173317089676857</v>
+        <v>0.1379239559173584</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2762783765792847</v>
+        <v>0.2198104113340378</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1988366426843066</v>
+        <v>0.1633071484172495</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>21.48848474025726</v>
+        <v>19.60650086402893</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option2/window2/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window2/BA47 Overall Model Peformance Results.xlsx
@@ -1736,23 +1736,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02724786847829819</v>
+        <v>0.02680328674614429</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1397253274917603</v>
+        <v>0.1367786675691605</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2074087411165237</v>
+        <v>0.2045823484659195</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.165069283872858</v>
+        <v>0.1637170936284428</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.08050829172134</v>
+        <v>19.53535974025726</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1770,19 +1770,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02734648622572422</v>
+        <v>0.02618758752942085</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1339510530233383</v>
+        <v>0.1337496340274811</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2023684680461884</v>
+        <v>0.2021677643060684</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1653677303034791</v>
+        <v>0.1618257937704025</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.18877565860748</v>
+        <v>19.11370456218719</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3051,23 +3051,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2954631149768829</v>
+        <v>0.2847001552581787</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3487683832645416</v>
+        <v>0.3223241567611694</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2178731709718704</v>
+        <v>0.2108353823423386</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5435651892614932</v>
+        <v>0.5335730083673449</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>14.29997235536575</v>
+        <v>13.77559900283813</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3081,23 +3081,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2740853428840637</v>
+        <v>0.2813150882720947</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.332440197467804</v>
+        <v>0.3361196219921112</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2084428668022156</v>
+        <v>0.2092519998550415</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.523531606385005</v>
+        <v>0.5303914481513581</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>14.28772062063217</v>
+        <v>14.35142159461975</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4363,53 +4363,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1476894468069077</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2688986361026764</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1225423142313957</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3843038469842679</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.69656983017921</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.1568879932165146</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.2607287764549255</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.1243405863642693</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.3960908900953348</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>10.97674518823624</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.1851715743541718</v>
+        <v>0.1451642215251923</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2786993980407715</v>
+        <v>0.2664324939250946</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1331361532211304</v>
+        <v>0.1229967027902603</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4303156682647888</v>
+        <v>0.3810042276998934</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>10.92795133590698</v>
+        <v>10.60477867722511</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5679,19 +5679,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05915462225675583</v>
+        <v>0.06545154750347137</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2092427909374237</v>
+        <v>0.2181891649961472</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07557915896177292</v>
+        <v>0.07893206179141998</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.243217232647598</v>
+        <v>0.2558350005442402</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.505277544260025</v>
+        <v>7.925622910261154</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5705,23 +5705,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.07688132673501968</v>
+        <v>0.05788585171103477</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2179407775402069</v>
+        <v>0.1893690377473831</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.07777933031320572</v>
+        <v>0.06874347478151321</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2772748216752103</v>
+        <v>0.2405947873729495</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>7.784462720155716</v>
+        <v>6.872854381799698</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -6989,19 +6989,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06631806492805481</v>
+        <v>0.08353208005428314</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1970517039299011</v>
+        <v>0.2047354280948639</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.397451758384705</v>
+        <v>1.798954367637634</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.257522940585989</v>
+        <v>0.2890191690083603</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>40.31057953834534</v>
+        <v>37.46821284294128</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7015,23 +7015,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.06582744419574738</v>
+        <v>0.07064189016819</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1970707476139069</v>
+        <v>0.20124252140522</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.403590321540833</v>
+        <v>1.530732870101929</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2565685954978656</v>
+        <v>0.2657854212860254</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>43.46902966499329</v>
+        <v>38.54950070381165</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8299,19 +8299,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09086253494024277</v>
+        <v>0.07193229347467422</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2465444654226303</v>
+        <v>0.1800070405006409</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.475628614425659</v>
+        <v>1.920450687408447</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3014341303506336</v>
+        <v>0.2682019639649834</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>72.71609306335449</v>
+        <v>38.13603818416595</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8329,19 +8329,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1468938142061234</v>
+        <v>0.09061838686466217</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3031841218471527</v>
+        <v>0.2368216067552567</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.876881718635559</v>
+        <v>1.737109661102295</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3832672882025328</v>
+        <v>0.3010288804494715</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>45.2384889125824</v>
+        <v>42.42255389690399</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9605,53 +9605,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.131727933883667</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2765156328678131</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.781091213226318</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3629434306936372</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>73.32971692085266</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.0815085768699646</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.2287299335002899</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>1.673096060752869</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.2854970698097699</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>56.92907571792603</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.08050532639026642</v>
+        <v>0.07558894902467728</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2238587439060211</v>
+        <v>0.190380796790123</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.8148134350776672</v>
+        <v>1.882597327232361</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2837346055564361</v>
+        <v>0.2749344449585706</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>56.69451951980591</v>
+        <v>37.67248094081879</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10915,23 +10915,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8874229788780212</v>
+        <v>0.7649423480033875</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7948643565177917</v>
+        <v>0.4823459386825562</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6243221759796143</v>
+        <v>0.6662381291389465</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9420313046167952</v>
+        <v>0.8746098261530038</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>36.97966039180756</v>
+        <v>22.43851274251938</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10949,19 +10949,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.7934713959693909</v>
+        <v>0.6970497965812683</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5175591707229614</v>
+        <v>0.4641848802566528</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.704592764377594</v>
+        <v>0.6303953528404236</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8907701139853037</v>
+        <v>0.8348950811816227</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>24.02986288070679</v>
+        <v>22.04635441303253</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12229,19 +12229,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6265352368354797</v>
+        <v>0.609783947467804</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4491729438304901</v>
+        <v>0.4123633801937103</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.622826099395752</v>
+        <v>0.6063576340675354</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7915397885359142</v>
+        <v>0.780886641880756</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.41819214820862</v>
+        <v>20.56915313005447</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12259,19 +12259,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.7678157091140747</v>
+        <v>0.762499213218689</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5207904577255249</v>
+        <v>0.4103415906429291</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6903554201126099</v>
+        <v>0.6775133609771729</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8762509395795675</v>
+        <v>0.8732120093188647</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>23.57866019010544</v>
+        <v>19.77030038833618</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13539,19 +13539,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7336752414703369</v>
+        <v>0.6944154500961304</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5144794583320618</v>
+        <v>0.4672613739967346</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.40315842628479</v>
+        <v>0.3863738477230072</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8565484466568933</v>
+        <v>0.8333159365427559</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.98343127965927</v>
+        <v>21.77891284227371</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13569,19 +13569,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.7420217990875244</v>
+        <v>0.7377089858055115</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4934975802898407</v>
+        <v>0.419388085603714</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4014781713485718</v>
+        <v>0.3783107399940491</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8614068719760276</v>
+        <v>0.8588998694874226</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.24935293197632</v>
+        <v>19.5929691195488</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -14611,23 +14611,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02801901660859585</v>
+        <v>0.03010467998683453</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.145381286740303</v>
+        <v>0.1468127518892288</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2136626541614532</v>
+        <v>0.2172612845897675</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1673888186486656</v>
+        <v>0.1735070027025841</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.10460644960403</v>
+        <v>20.95135897397995</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15867,53 +15867,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04551436007022858</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1677572280168533</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5035268664360046</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2133409479453688</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>28.40922474861145</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.0582987517118454</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.1889524310827255</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.5875173807144165</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.2414513443985049</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>30.28496205806732</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.05275263264775276</v>
+        <v>0.05557228997349739</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.186959445476532</v>
+        <v>0.1807119399309158</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5398842692375183</v>
+        <v>0.5681618452072144</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.229679412764298</v>
+        <v>0.2357377567838835</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>30.28132915496826</v>
+        <v>29.89848554134369</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -16943,23 +16943,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04285915195941925</v>
+        <v>0.03203865885734558</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1617514044046402</v>
+        <v>0.1293572336435318</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3662818968296051</v>
+        <v>0.330920934677124</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2070245201888396</v>
+        <v>0.1789934603759187</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.23275518417358</v>
+        <v>21.40702158212662</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -17965,23 +17965,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05105108767747879</v>
+        <v>0.04850852116942406</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.189114049077034</v>
+        <v>0.1675459742546082</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5276942849159241</v>
+        <v>0.4867244362831116</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2259448775198915</v>
+        <v>0.2202465009243599</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>30.87762296199799</v>
+        <v>28.14585566520691</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18987,23 +18987,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0630769357085228</v>
+        <v>0.05796969681978226</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2060992866754532</v>
+        <v>0.2024534791707993</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07561272382736206</v>
+        <v>0.07316859811544418</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2511512207983923</v>
+        <v>0.2407689698025521</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.346656918525696</v>
+        <v>7.355693727731705</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20009,23 +20009,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1602076888084412</v>
+        <v>0.1573012173175812</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2759581208229065</v>
+        <v>0.2734766006469727</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1283445954322815</v>
+        <v>0.127044752240181</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.40025952681784</v>
+        <v>0.3966121749487542</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.69748997688293</v>
+        <v>10.8500249683857</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21031,23 +21031,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2676971852779388</v>
+        <v>0.2687190771102905</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.321606457233429</v>
+        <v>0.3284960091114044</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2040140926837921</v>
+        <v>0.2060991376638412</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5173946127260496</v>
+        <v>0.5183812082920161</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.87366205453873</v>
+        <v>14.08513337373734</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22287,23 +22287,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04010416567325592</v>
+        <v>0.0180210042744875</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1605589091777802</v>
+        <v>0.09722450375556946</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3597183525562286</v>
+        <v>0.2450298219919205</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2002602448646658</v>
+        <v>0.1342423341367674</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.93789994716644</v>
+        <v>16.58230423927307</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22317,23 +22317,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03875037655234337</v>
+        <v>0.02116863429546356</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1599301844835281</v>
+        <v>0.109166145324707</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3449511528015137</v>
+        <v>0.2600255012512207</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1968511532918803</v>
+        <v>0.1454944476447935</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.9611189365387</v>
+        <v>18.16797852516174</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -23597,23 +23597,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06091503798961639</v>
+        <v>0.06830035895109177</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1983271986246109</v>
+        <v>0.2065399885177612</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07331990450620651</v>
+        <v>0.07851777970790863</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2468097202089423</v>
+        <v>0.261343373650628</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.396182417869568</v>
+        <v>7.490693032741547</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23627,23 +23627,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05663740634918213</v>
+        <v>0.05834081023931503</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1942615956068039</v>
+        <v>0.2074309289455414</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.07107166200876236</v>
+        <v>0.07471952587366104</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2379861473892591</v>
+        <v>0.2415384239397844</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>7.262742519378662</v>
+        <v>7.534819841384888</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24908,53 +24908,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.273369699716568</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3189580142498016</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.204861119389534</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5228476830938127</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>13.7140765786171</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.2733067572116852</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.3405292928218842</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.2088231891393661</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.5227874876196686</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>14.01854455471039</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.2764570116996765</v>
+        <v>0.2678402960300446</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3355039060115814</v>
+        <v>0.3258252739906311</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.209111288189888</v>
+        <v>0.2049504071474075</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5257917950098465</v>
+        <v>0.5175328936696145</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.90849053859711</v>
+        <v>13.99190723896027</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26219,23 +26219,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1663714051246643</v>
+        <v>0.1558547914028168</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2910134494304657</v>
+        <v>0.2581175267696381</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1314902454614639</v>
+        <v>0.1221994161605835</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4078865101038086</v>
+        <v>0.3947844872874525</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.6689071059227</v>
+        <v>10.28647720813751</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26249,23 +26249,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.158625066280365</v>
+        <v>0.1553171724081039</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2685058414936066</v>
+        <v>0.2668508291244507</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1258935928344727</v>
+        <v>0.1249266713857651</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3982776246293093</v>
+        <v>0.3941029972077146</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>10.78678891062737</v>
+        <v>10.60515940189362</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -27532,53 +27532,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02910695225000381</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1423161029815674</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.210483193397522</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1706075972810233</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.31921595335007</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.0293405968695879</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.1445633918046951</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.215103805065155</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.1712909713603957</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>20.05238384008408</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.02801270224153996</v>
+        <v>0.02722532488405704</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1412692815065384</v>
+        <v>0.1378504037857056</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2102108746767044</v>
+        <v>0.2042035758495331</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1673699562094104</v>
+        <v>0.1650009844942055</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.10428905487061</v>
+        <v>19.68856602907181</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28846,23 +28846,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05418019369244576</v>
+        <v>0.05371403321623802</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1841052323579788</v>
+        <v>0.1805277317762375</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5617623329162598</v>
+        <v>0.5593516230583191</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2327663929617971</v>
+        <v>0.2317628814461842</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>30.13171553611755</v>
+        <v>29.96837198734283</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28876,23 +28876,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0544058121740818</v>
+        <v>0.05177431553602219</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1838089525699615</v>
+        <v>0.1771481782197952</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5691165924072266</v>
+        <v>0.5444082021713257</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2332505352064209</v>
+        <v>0.2275397010106636</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>30.27904629707336</v>
+        <v>29.56662178039551</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30158,53 +30158,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04455049335956573</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1751235872507095</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3789578080177307</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2110698779067391</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>27.68155336380005</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.04161060228943825</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.1625456362962723</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.3648449778556824</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.2039867698882412</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>25.97399950027466</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.04193447902798653</v>
+        <v>0.04129387438297272</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1606728136539459</v>
+        <v>0.1598695069551468</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3714436888694763</v>
+        <v>0.3620153665542603</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.204779098122798</v>
+        <v>0.2032089426747079</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>26.13101005554199</v>
+        <v>25.43937861919403</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option2/window2/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window2/BA47 Overall Model Peformance Results.xlsx
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05258380768152056</v>
+        <v>0.04769098985203382</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1931164814476832</v>
+        <v>0.1783729837506487</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2705655001506638</v>
+        <v>0.3503183869360993</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.229311595174602</v>
+        <v>0.2183826683874749</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>33.75339946252968</v>
+        <v>30.30889184199391</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06156891765534168</v>
+        <v>0.06031627573059552</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2124604480759507</v>
+        <v>0.1999317643050603</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2971104623202678</v>
+        <v>0.3987269623198815</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2481308478511724</v>
+        <v>0.2455937208696418</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>36.74980970703312</v>
+        <v>35.33578480087969</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -1158,23 +1158,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02147516252898832</v>
+        <v>0.02838600165446651</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1198674579547536</v>
+        <v>0.1290070904802651</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1649738507896212</v>
+        <v>0.2357858777020445</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1465440634382311</v>
+        <v>0.1684814578951242</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.68328209439802</v>
+        <v>21.34059896323631</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -1188,23 +1188,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02155433154657455</v>
+        <v>0.03274797328155127</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1227888969189568</v>
+        <v>0.1420822402971032</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1682103073202604</v>
+        <v>0.2671477391552366</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1468139351239335</v>
+        <v>0.180964011012</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>17.68117241275489</v>
+        <v>23.70478502266287</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -1220,53 +1220,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': LinearRegression()}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.07397105297451145</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2274083846812334</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.5222054330008262</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.2719761992794801</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>36.36573724094588</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.07502443995748505</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.2377310905019999</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.3371058018206917</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.2739058961714498</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>35.15311784140675</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.07535825087230495</v>
+        <v>0.05496454900978732</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2347167375093859</v>
+        <v>0.1904824552483868</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3223998729679617</v>
+        <v>0.428531700601597</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2745145731510532</v>
+        <v>0.2344451940428452</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>34.9132129767539</v>
+        <v>31.01618726112091</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -1282,23 +1282,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04001435735692079</v>
+        <v>0.02980666014867901</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1565718134789168</v>
+        <v>0.1320083865684609</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2041223535982498</v>
+        <v>0.2594429726738536</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2000358901720408</v>
+        <v>0.1726460545413043</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>22.54896658180764</v>
+        <v>21.94334216955265</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -1312,23 +1312,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.04001435735692079</v>
+        <v>0.03557802195260582</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1565718134789168</v>
+        <v>0.143337075252935</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2041223535982498</v>
+        <v>0.2842001514149304</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2000358901720408</v>
+        <v>0.1886213719402068</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>22.54896658180764</v>
+        <v>23.65384918967653</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -2085,19 +2085,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3.759881640371885e-07</v>
+        <v>0.5916642404296716</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0004837230906868916</v>
+        <v>0.5751318556240201</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0002028953491320183</v>
+        <v>0.2793422752562916</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0006131787374307662</v>
+        <v>0.7691971401595767</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.02028847278845907</v>
+        <v>26.98502444962785</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -2115,19 +2115,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>3.294069700143488e-07</v>
+        <v>0.6127596786779923</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0004572570712016229</v>
+        <v>0.555137888240961</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0001892337475239075</v>
+        <v>0.2749828666030318</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0005739398662005879</v>
+        <v>0.7827896771662183</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.01892278658555098</v>
+        <v>26.19125133569974</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2473,53 +2473,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.128522168772132</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.9668128608957962</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4243894395092366</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.062319240516772</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>46.05463227003575</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.2596628899678542</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.4049796753695942</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.1630620229012017</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.5095712805563656</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>17.11805576560783</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.827338516127292</v>
+        <v>0.7177902107854559</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.7980331447949331</v>
+        <v>0.6882705526885543</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3041487025801022</v>
+        <v>0.3503411188369251</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.9095815060385144</v>
+        <v>0.847225005996315</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>36.85439120620891</v>
+        <v>32.14273617673103</v>
       </c>
     </row>
     <row r="14">
@@ -2535,23 +2535,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7249226152124523</v>
+        <v>0.9760360956040022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.71519385546332</v>
+        <v>0.8301180462372326</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3574076175017221</v>
+        <v>0.4419419644052937</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8514238751717339</v>
+        <v>0.9879453910029654</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>29.64054851107942</v>
+        <v>38.64338239717471</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -2569,19 +2569,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.7980489768550829</v>
+        <v>0.5601327292243469</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5771903571881087</v>
+        <v>0.5611962811239067</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3482412958706558</v>
+        <v>0.3480090324106316</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8933358701267307</v>
+        <v>0.7484201555438943</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>22.68901167944783</v>
+        <v>25.13869422651213</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2601,19 +2601,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3097544277218953</v>
+        <v>0.4215047330381076</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4402718386827276</v>
+        <v>0.5275749113776845</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2267549816569082</v>
+        <v>0.3060697576363188</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.556555862175483</v>
+        <v>0.6492339586297898</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.65743499127423</v>
+        <v>23.4013713318479</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.4086555308111822</v>
+        <v>0.3791531271437222</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.5287715711394461</v>
+        <v>0.4915564375912977</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2590721366653235</v>
+        <v>0.2870719588319634</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.6392617076058773</v>
+        <v>0.6157541125674454</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>22.39306348318023</v>
+        <v>21.92054369474899</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -3397,19 +3397,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3.856452158952123e-07</v>
+        <v>0.7645792288890558</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0004403976713980851</v>
+        <v>0.6512011194662636</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0001535418746055191</v>
+        <v>0.2651960064200214</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0006210033944313126</v>
+        <v>0.8744022123079607</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.0153561754154167</v>
+        <v>30.1000156376863</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3427,19 +3427,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>2.484125030710513e-07</v>
+        <v>0.6320829682619097</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0003540606289727398</v>
+        <v>0.5740573724817195</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0001270301224995518</v>
+        <v>0.2320454596890514</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0004984099748912047</v>
+        <v>0.7950364571904295</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.01270433055984928</v>
+        <v>26.08199972883054</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3785,23 +3785,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2533378107848325</v>
+        <v>0.9852231042828899</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.464098831028888</v>
+        <v>0.8813505250134213</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1695465982029594</v>
+        <v>0.3474518085528371</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.5033267435621045</v>
+        <v>0.9925840540140114</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>18.67577034564036</v>
+        <v>40.60596737807797</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -3819,19 +3819,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.3355991133812923</v>
+        <v>0.8479023058406346</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5439873180436644</v>
+        <v>0.8162635466769785</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2034886844121135</v>
+        <v>0.3385726802805535</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.5793091690809773</v>
+        <v>0.9208161085909795</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>22.57497319025677</v>
+        <v>36.95615892939584</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -3847,53 +3847,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.7284322581367583</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.637608976505905</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3521151046896687</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.8534824298934093</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>27.70646543802068</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.7072464331806311</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.7114790210888073</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.2789750530340546</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.8409794487266803</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>29.53794448951276</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.6991913111697374</v>
+        <v>0.3353202640621721</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.7509717154062591</v>
+        <v>0.427968862620367</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.30134136213872</v>
+        <v>0.2444538705642076</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8361766028595499</v>
+        <v>0.5790684450582436</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>30.72941130608709</v>
+        <v>18.37470173408447</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -3913,19 +3913,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1928406964657006</v>
+        <v>0.3721162476963739</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3575661060119198</v>
+        <v>0.4925067512769993</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1463301794718236</v>
+        <v>0.2548822413388508</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4391363073872401</v>
+        <v>0.6100133176385364</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>14.15944684640465</v>
+        <v>21.06885334984885</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -3939,23 +3939,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.2198269465285955</v>
+        <v>0.3019003207580486</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3930273208898996</v>
+        <v>0.4162398003301356</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.159026503682759</v>
+        <v>0.2300740883330228</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.4688570640702724</v>
+        <v>0.5494545666004138</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>15.75661398245064</v>
+        <v>17.84268729844032</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -4709,19 +4709,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.485432290240653e-08</v>
+        <v>0.4769205093506138</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.000267600361752287</v>
+        <v>0.5869545229166002</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9.704253187272208e-05</v>
+        <v>0.2215690056515588</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0002912976534447309</v>
+        <v>0.6905943160427935</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.009704731649280934</v>
+        <v>25.10650687507656</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4739,19 +4739,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>6.542126206161126e-08</v>
+        <v>0.4967800724579478</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0002366269785558016</v>
+        <v>0.6069520822351594</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>8.58107261251532e-05</v>
+        <v>0.2289217802558559</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0002557758042927658</v>
+        <v>0.7048262711178889</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.008581447729605961</v>
+        <v>26.5821162462736</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -5101,19 +5101,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6108859111137961</v>
+        <v>1.655381069886569</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6767755808091669</v>
+        <v>1.235708659699821</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.248030042018259</v>
+        <v>0.4621127418258663</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7815919082960084</v>
+        <v>1.286616131519642</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>30.09432505555479</v>
+        <v>61.8108234199513</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -5127,23 +5127,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 50}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5139097509189239</v>
+        <v>1.625408084928546</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.6458826024880606</v>
+        <v>1.216233836380465</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2334094771895467</v>
+        <v>0.4416291397311559</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7168749897429285</v>
+        <v>1.274914932428256</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>27.39170159073047</v>
+        <v>58.07526134000186</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -5163,19 +5163,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.659997035443864e-06</v>
+        <v>0.2081943285254975</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00150183200803716</v>
+        <v>0.3532902473858919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0005376130613534933</v>
+        <v>0.1597287264480657</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.00163094973418676</v>
+        <v>0.4562831670415834</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05374447323452976</v>
+        <v>14.29699448439623</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -5193,19 +5193,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.420940007055131</v>
+        <v>0.3204231652271852</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5809762839780959</v>
+        <v>0.4971045717741068</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2037229429224209</v>
+        <v>0.201159151492198</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.6487988956950613</v>
+        <v>0.5660593301299655</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>23.23782228915638</v>
+        <v>20.35879320268581</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -5221,23 +5221,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4261884503691171</v>
+        <v>0.3719909987983695</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6139711887259193</v>
+        <v>0.5595005921604359</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2194310693711315</v>
+        <v>0.2236151662217316</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6528311040147499</v>
+        <v>0.6099106482087105</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>25.04937848658173</v>
+        <v>23.08208700064326</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -5251,23 +5251,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.1641452518388201</v>
+        <v>3.477542648118872</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3448051837274844</v>
+        <v>1.757337211877293</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1192850280604337</v>
+        <v>0.639653225295896</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.4051484318602505</v>
+        <v>1.864817054865938</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>12.94897889468272</v>
+        <v>99.61913638547388</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -6019,19 +6019,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07347085936513183</v>
+        <v>0.03778075253775545</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1873070084610048</v>
+        <v>0.1596780531786835</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.731563211598511</v>
+        <v>0.2991637012732015</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2710550854810362</v>
+        <v>0.194372715517779</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>35.00851047484371</v>
+        <v>26.28201577478286</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -6049,19 +6049,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.07674859398668618</v>
+        <v>0.03541518492063182</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1994954768039615</v>
+        <v>0.1542039565738883</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.720205948599696</v>
+        <v>0.2928463135941294</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2770353659493426</v>
+        <v>0.1881892263670581</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>36.89046412383939</v>
+        <v>25.33535604744251</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -6407,23 +6407,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0639483445549386</v>
+        <v>0.02358351834320702</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1818629096954293</v>
+        <v>0.1150645623862719</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.67818509173812</v>
+        <v>0.1957654611467633</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2528800991674485</v>
+        <v>0.1535692623645989</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>34.71458783540925</v>
+        <v>18.73442333474905</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -6437,23 +6437,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06582541698259572</v>
+        <v>0.03678615821147674</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1803504460545791</v>
+        <v>0.1366511820918156</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.659883799607112</v>
+        <v>0.2336822112384333</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2565646448414039</v>
+        <v>0.1917971798840555</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>34.28516299748406</v>
+        <v>22.34953897258347</v>
       </c>
     </row>
     <row r="14">
@@ -6469,23 +6469,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08661827113299096</v>
+        <v>0.04142602763297393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2314443740638806</v>
+        <v>0.1523963642877761</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.652725893552004</v>
+        <v>0.3707601159769646</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2943098216726567</v>
+        <v>0.2035338488629691</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>41.95710272731181</v>
+        <v>24.68026595440549</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -6503,19 +6503,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06903866638563413</v>
+        <v>0.05568516499523991</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1912663279926538</v>
+        <v>0.1665107447544267</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.696864697340457</v>
+        <v>0.3824074388461909</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2627521006302978</v>
+        <v>0.2359770433649001</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>36.1329232515127</v>
+        <v>26.97367202674085</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6535,19 +6535,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05797641788549469</v>
+        <v>0.02602475102925001</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1804272740547482</v>
+        <v>0.1099019399981496</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.55977369335243</v>
+        <v>0.1828632725677918</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2407829268978486</v>
+        <v>0.1613218863925475</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>35.14917000016246</v>
+        <v>17.97568526661049</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -6561,23 +6561,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0610669912717938</v>
+        <v>0.04322328802579688</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1814967007860476</v>
+        <v>0.1632524188317449</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.498058112949713</v>
+        <v>0.3413974975559899</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2471173633555396</v>
+        <v>0.2079021116434291</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>34.63866459474914</v>
+        <v>26.7591790866523</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -7329,19 +7329,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06142416231533394</v>
+        <v>0.02790241835965074</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1474922018344862</v>
+        <v>0.1250639748609596</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.811626204852467</v>
+        <v>0.1956364076532369</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2478389846560342</v>
+        <v>0.1670401698982935</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>29.17564837127721</v>
+        <v>20.85344079803462</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -7359,19 +7359,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05488106101601387</v>
+        <v>0.02790241835965074</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1341774375397881</v>
+        <v>0.1250639748609596</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.757125901183277</v>
+        <v>0.1956364076532369</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2342670719841222</v>
+        <v>0.1670401698982935</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>27.17247340470155</v>
+        <v>20.85344079803462</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -7717,23 +7717,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05875893694658847</v>
+        <v>0.02145769778457939</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1439483066855573</v>
+        <v>0.114134939232124</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.744184994429826</v>
+        <v>0.1994389693176373</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2424024276829514</v>
+        <v>0.1464844626046715</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>28.89721378801746</v>
+        <v>19.84843566434934</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -7747,23 +7747,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05150559097037748</v>
+        <v>0.02145769778457939</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1328360156067146</v>
+        <v>0.114134939232124</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.696739226084389</v>
+        <v>0.1994389693176373</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2269484324034372</v>
+        <v>0.1464844626046715</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>27.51801391306804</v>
+        <v>19.84843566434934</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -7779,23 +7779,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': LinearRegression()}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07141239674948648</v>
+        <v>0.05093427731060041</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2078962263218503</v>
+        <v>0.1795579516711141</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.779868866485101</v>
+        <v>0.5407149399580576</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2672309801454286</v>
+        <v>0.225686236422606</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>38.79768545019154</v>
+        <v>30.80998158642597</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -7809,23 +7809,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': LinearRegression()}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.0517193160318467</v>
+        <v>0.05093427731060041</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1475482695762911</v>
+        <v>0.1795579516711141</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.619355328431665</v>
+        <v>0.5407149399580576</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2274188119568095</v>
+        <v>0.225686236422606</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>29.75672458724433</v>
+        <v>30.80998158642597</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7841,23 +7841,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06040546767981018</v>
+        <v>0.02873248295186364</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1498525184104369</v>
+        <v>0.1232859504180561</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.738456602316669</v>
+        <v>0.3049302225441086</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2457752381339711</v>
+        <v>0.1695065867506736</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>29.95028822268114</v>
+        <v>22.63501995967771</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -7871,23 +7871,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0522919344642284</v>
+        <v>0.02873248295186364</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1409518231558241</v>
+        <v>0.1232859504180561</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.621458674251756</v>
+        <v>0.3049302225441086</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2286742977779278</v>
+        <v>0.1695065867506736</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>28.21854963778195</v>
+        <v>22.63501995967771</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -8639,19 +8639,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0564146775842053</v>
+        <v>0.04542192757338329</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1537440184691979</v>
+        <v>0.1620695964617939</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.722075760216315</v>
+        <v>0.433609321537154</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2375177416198742</v>
+        <v>0.2131242069155526</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.54932766549613</v>
+        <v>29.55445684223979</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -8669,19 +8669,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05177125259518384</v>
+        <v>0.05053313747537857</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1437549772769163</v>
+        <v>0.1732738027654145</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.648687224979777</v>
+        <v>0.5011822881806653</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2275329703475605</v>
+        <v>0.224795768366263</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>28.97545627888178</v>
+        <v>31.31703804863029</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -9027,23 +9027,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06793386078949569</v>
+        <v>0.0419416649928705</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1578727905449588</v>
+        <v>0.142809965762737</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.891045414757624</v>
+        <v>0.3935491609667381</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2606412492095134</v>
+        <v>0.2047966430214873</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>29.66690080427335</v>
+        <v>26.52501358305867</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -9057,23 +9057,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06086952849830088</v>
+        <v>0.04578747508577186</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1568575242792306</v>
+        <v>0.1591314324553611</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.843602554716531</v>
+        <v>0.4780080621391885</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2467175074823448</v>
+        <v>0.2139800810490824</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>29.59838353547681</v>
+        <v>29.25572705989291</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9093,19 +9093,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1376362335506021</v>
+        <v>0.03345168715386173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2923245148911115</v>
+        <v>0.1260688479209247</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.295308908739947</v>
+        <v>0.5495334966929331</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3709935761581352</v>
+        <v>0.182898023920057</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>54.44531025587705</v>
+        <v>24.5941120886566</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9119,23 +9119,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.09343309687699247</v>
+        <v>0.08951166996208625</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2191591934498373</v>
+        <v>0.212501292160278</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>2.144911087464965</v>
+        <v>0.6569798313167546</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3056682791474975</v>
+        <v>0.2991850095878573</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>37.83601128963102</v>
+        <v>39.6941291782838</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9151,23 +9151,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07751963863379478</v>
+        <v>0.05898330903796912</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1774720338094835</v>
+        <v>0.1949010171425858</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.928008204018915</v>
+        <v>0.6117345006800714</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2784234879348271</v>
+        <v>0.2428647957979277</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>32.34688094694344</v>
+        <v>34.6288286974434</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -9181,23 +9181,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.06702215896856227</v>
+        <v>0.06064513205659805</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1901115437033807</v>
+        <v>0.1971581782670922</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.855386564203267</v>
+        <v>0.6198237398719608</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2588863823544264</v>
+        <v>0.2462623236644169</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>34.45669340884078</v>
+        <v>34.950675367164</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -9949,19 +9949,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6683148393627507</v>
+        <v>0.247389301204712</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3556318506139435</v>
+        <v>0.393937342558538</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6231505753478798</v>
+        <v>0.1576876573349907</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8175052534159953</v>
+        <v>0.4973824496347976</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>17.88305238096145</v>
+        <v>16.15425044812656</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -9979,19 +9979,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.6708740038473108</v>
+        <v>0.3280353986633255</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3549047157999201</v>
+        <v>0.4423471223709029</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.623648199135455</v>
+        <v>0.1701573072376502</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.8190689860123571</v>
+        <v>0.5727437460708982</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>17.83789245572382</v>
+        <v>18.36403119540953</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -10337,23 +10337,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6921214701859825</v>
+        <v>0.09963712167808214</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3500154299142766</v>
+        <v>0.2215233827197647</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6329342017229926</v>
+        <v>0.09401357716250233</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8319383812434563</v>
+        <v>0.3156534835513179</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.58252245065339</v>
+        <v>9.087178133191683</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -10367,23 +10367,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.6922554618278408</v>
+        <v>0.1274279264171497</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3454808743209007</v>
+        <v>0.2454494674385636</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6305210767944724</v>
+        <v>0.09972120896970071</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.8320189071336305</v>
+        <v>0.3569704839579173</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>17.39294546484261</v>
+        <v>9.992207712257329</v>
       </c>
     </row>
     <row r="14">
@@ -10403,19 +10403,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6906441201791294</v>
+        <v>0.1334202046908349</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3609369121176673</v>
+        <v>0.2132232768194107</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6336571896751175</v>
+        <v>0.110612116694282</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8310500106366219</v>
+        <v>0.3652673058060835</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.99960982662148</v>
+        <v>8.849896370820884</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10429,23 +10429,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.698255079162602</v>
+        <v>0.1465495845495389</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3970122151335735</v>
+        <v>0.2366753800254127</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6424135825832566</v>
+        <v>0.1166894773677331</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8356165862179867</v>
+        <v>0.3828179522299587</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>19.45388007140282</v>
+        <v>9.688100866986241</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10461,23 +10461,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6859390876560771</v>
+        <v>0.1791879310335597</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3949175410194076</v>
+        <v>0.3380111533112762</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6227762815721178</v>
+        <v>0.1421482163697771</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.828214397155759</v>
+        <v>0.4233059544036201</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.39940361201235</v>
+        <v>13.67920359935358</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -10491,23 +10491,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.683554553023049</v>
+        <v>0.1632520189546761</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3834877520575912</v>
+        <v>0.3051110929797866</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6220029317389588</v>
+        <v>0.1227347221000584</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.8267735802643</v>
+        <v>0.4040445754550803</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>18.94783663152832</v>
+        <v>12.36182726020981</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -11259,19 +11259,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6477380571432917</v>
+        <v>0.2552981634079355</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3470818255292122</v>
+        <v>0.3849840690310996</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6406556666378996</v>
+        <v>0.1585711897903126</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8048217548894238</v>
+        <v>0.5052703864347637</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>17.69326257051894</v>
+        <v>16.55650504265614</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -11289,19 +11289,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.5815080938382747</v>
+        <v>0.2668100020590767</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3623570503815428</v>
+        <v>0.3933290555338195</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6111783801815242</v>
+        <v>0.1691007117376285</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.7625667799204702</v>
+        <v>0.5165365447469101</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>18.31416938655146</v>
+        <v>17.06812689341175</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -11647,23 +11647,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6699012006541463</v>
+        <v>0.1375060974188721</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3571117172356469</v>
+        <v>0.2832125697184645</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6511533016197684</v>
+        <v>0.1357693960628404</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8184749236562756</v>
+        <v>0.3708181460215669</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.96032836392635</v>
+        <v>12.68850119223493</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -11677,23 +11677,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.6268471698397332</v>
+        <v>0.203648329612444</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3481288662425613</v>
+        <v>0.3156351909453369</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.630035238653741</v>
+        <v>0.1487290207998538</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7917368059145243</v>
+        <v>0.4512741180396279</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>17.69293607901828</v>
+        <v>14.00969523921197</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -11709,23 +11709,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6993781969682086</v>
+        <v>0.2662568218579724</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5242022547897677</v>
+        <v>0.3309095826112451</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6072726338880475</v>
+        <v>0.2131596926190813</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8362883455891327</v>
+        <v>0.5160007963733897</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>24.7458023549504</v>
+        <v>14.38240935477885</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -11743,19 +11743,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.6007602351578282</v>
+        <v>0.2498774819200553</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3501890659811482</v>
+        <v>0.2750268664653721</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6142921115618863</v>
+        <v>0.1955682402823395</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7750872435783137</v>
+        <v>0.4998774669056962</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>17.86106487348958</v>
+        <v>12.2430544939448</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -11771,23 +11771,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.739471726693064</v>
+        <v>0.2485618650977072</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3911204149458508</v>
+        <v>0.3825393737269451</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6634178902018025</v>
+        <v>0.2037001420089237</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.85992541926208</v>
+        <v>0.4985597908954423</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.04554760472379</v>
+        <v>16.56983898801378</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -11801,23 +11801,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.6199953714388909</v>
+        <v>0.2350424212527834</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.4221453493304176</v>
+        <v>0.3749464348835026</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6272996033269728</v>
+        <v>0.1993393982780938</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.7873978482564522</v>
+        <v>0.4848117379486426</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>20.45455393477031</v>
+        <v>16.28595693877305</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -12569,19 +12569,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.5551309620154475</v>
+        <v>0.333481680122749</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3264350403149848</v>
+        <v>0.4298864428165374</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3144413285326214</v>
+        <v>0.2218429610939667</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.7450711120527004</v>
+        <v>0.577478726987193</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>16.61751594870133</v>
+        <v>19.41654877097492</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12599,19 +12599,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.5568457268261758</v>
+        <v>0.30335959172671</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.328881965107142</v>
+        <v>0.4149992055323153</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3155677821876571</v>
+        <v>0.2101028313753923</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.7462209638077557</v>
+        <v>0.5507808926666846</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>16.71707216891193</v>
+        <v>18.71849092874527</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -12961,19 +12961,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5882066707478121</v>
+        <v>0.1697132829239668</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3351738264201359</v>
+        <v>0.3035212414606974</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.324719676621314</v>
+        <v>0.1674808781050082</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7669463284662181</v>
+        <v>0.4119627203084847</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>16.89739963759272</v>
+        <v>14.38159334407015</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -12987,23 +12987,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.6247785667398443</v>
+        <v>0.1519959219906855</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.352338123651531</v>
+        <v>0.2866763369120455</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3372554750779753</v>
+        <v>0.1548424656879514</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7904293559451372</v>
+        <v>0.3898665438206842</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>17.46563700354348</v>
+        <v>13.60657066899065</v>
       </c>
     </row>
     <row r="14">
@@ -13019,23 +13019,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': LinearRegression()}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7291358213637777</v>
+        <v>0.7406400503750196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4018701770888107</v>
+        <v>0.7107734261315665</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3755601371093215</v>
+        <v>0.4026556871524943</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8538945024789525</v>
+        <v>0.8606044680194378</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>19.09456463838751</v>
+        <v>30.96958044161328</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -13049,23 +13049,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.6160150425628462</v>
+        <v>0.8518947859632885</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3732179301862148</v>
+        <v>0.7240717991354473</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3397568244415539</v>
+        <v>0.4242155039995966</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7848662577553237</v>
+        <v>0.9229814656661793</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>18.20075376541345</v>
+        <v>32.23149047363925</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -13081,23 +13081,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5899536832759943</v>
+        <v>0.3189248082078782</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3774453340989748</v>
+        <v>0.4300450574640268</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3386429065332288</v>
+        <v>0.2598922972205426</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7680844245758368</v>
+        <v>0.5647342810631193</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.56947430905941</v>
+        <v>19.38104221118902</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -13111,23 +13111,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.6141223645743086</v>
+        <v>0.2814783310515316</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3463651393974319</v>
+        <v>0.4102975455000076</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.3296245127574355</v>
+        <v>0.2416894857955219</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.7836595973854391</v>
+        <v>0.5305453147955711</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>16.96941479810495</v>
+        <v>18.61947282661869</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -13879,19 +13879,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06565159060436795</v>
+        <v>0.05317077486176832</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2020808048600082</v>
+        <v>0.1874437596684854</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2777155968398854</v>
+        <v>0.3666203777022145</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2562256634382433</v>
+        <v>0.2305878896684913</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>32.19187518884223</v>
+        <v>31.42378113040974</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14177,23 +14177,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03553893475866756</v>
+        <v>0.0256543313180518</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.147923152133937</v>
+        <v>0.1261571433849012</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.198625684795465</v>
+        <v>0.258178310248741</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1885177306214658</v>
+        <v>0.1601696953797809</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>21.62385214750138</v>
+        <v>21.3784067895753</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -14225,19 +14225,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03952318295317824</v>
+        <v>0.05534168773230981</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.149355676498314</v>
+        <v>0.1842297374387857</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2026088204052559</v>
+        <v>0.4039235139190507</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1988043836367253</v>
+        <v>0.2352481407627057</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>21.91054638821628</v>
+        <v>29.87249203333927</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -14265,23 +14265,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04001435735692079</v>
+        <v>0.05049305168396716</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1565718134789168</v>
+        <v>0.1737046929674959</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2041223535982498</v>
+        <v>0.3197945304103189</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2000358901720408</v>
+        <v>0.2247065902103611</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>22.54896658180764</v>
+        <v>29.61647662147224</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -14901,19 +14901,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05065871097307249</v>
+        <v>0.0300418677527264</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1699996749685501</v>
+        <v>0.1270201124426205</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.308640691155827</v>
+        <v>0.2765821794546557</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.225074900806537</v>
+        <v>0.1733259004093918</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>29.52979957701849</v>
+        <v>22.91738939076512</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14931,19 +14931,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05223500173324198</v>
+        <v>0.02806787905971123</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1738676185275606</v>
+        <v>0.1227048655062767</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3043408578297899</v>
+        <v>0.2663210524224121</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2285497795519435</v>
+        <v>0.1675347100147048</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>30.26993293348402</v>
+        <v>24.12051152457071</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -15289,23 +15289,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02495501682436902</v>
+        <v>0.03661575021699326</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1193349966474827</v>
+        <v>0.1291526874395678</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2446118607006909</v>
+        <v>0.3587045527383885</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1579715696711564</v>
+        <v>0.1913524241210267</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>21.02423356902619</v>
+        <v>23.93709246553438</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -15319,23 +15319,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02449135252663294</v>
+        <v>0.03576418507481918</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1229568937550961</v>
+        <v>0.1272610372324196</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2512954519126486</v>
+        <v>0.3497119848894109</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1564971326466812</v>
+        <v>0.1891142117209047</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>21.75748002375132</v>
+        <v>23.41228261011609</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -15355,19 +15355,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04260969408921291</v>
+        <v>0.04760843354962156</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1585670109577806</v>
+        <v>0.1724880859675724</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4033731782783033</v>
+        <v>0.5044704852808262</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2064211570774975</v>
+        <v>0.218193568992355</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>27.16095939782158</v>
+        <v>31.43370665721174</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15381,23 +15381,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.09108870264768938</v>
+        <v>0.04957191198022839</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2536946640729225</v>
+        <v>0.1684641326268854</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6624668797252486</v>
+        <v>0.5754563994568911</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3018090499764535</v>
+        <v>0.2226475061172444</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>41.78385984086669</v>
+        <v>30.3374083266026</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -15413,23 +15413,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02086631612590958</v>
+        <v>0.04024165640710515</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1194589960680796</v>
+        <v>0.1424405716354363</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3005569901243924</v>
+        <v>0.4624470445941953</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1444517778565206</v>
+        <v>0.2006032312977664</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>22.15911210797928</v>
+        <v>26.7867990922394</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -15443,23 +15443,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0574776731574184</v>
+        <v>0.04217165650433968</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1905682656129055</v>
+        <v>0.1483913701217032</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.4941894232506477</v>
+        <v>0.4769029687207673</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2397450169605583</v>
+        <v>0.2053573872650791</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>32.04034189336659</v>
+        <v>27.74037950416988</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -16211,19 +16211,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4512416794016419</v>
+        <v>0.1603736034830379</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5657053493225597</v>
+        <v>0.2943400436859975</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9463458404808465</v>
+        <v>0.6377581731883042</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.6717452488865417</v>
+        <v>0.4004667320552832</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>83.55960900371842</v>
+        <v>52.76916829821796</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -16513,19 +16513,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07064415729493491</v>
+        <v>0.04449461205322569</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2293603232290146</v>
+        <v>0.1612853087254328</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3838564073481803</v>
+        <v>0.3675647622879517</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2657896862087295</v>
+        <v>0.2109374600520867</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>36.99781682083525</v>
+        <v>29.82405855578658</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -16553,23 +16553,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05500769323540611</v>
+        <v>0.03286179506646655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1854211726666431</v>
+        <v>0.1471278920057279</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3098992313733371</v>
+        <v>0.3958425369807532</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2345371894506415</v>
+        <v>0.181278225571817</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>30.54210329970106</v>
+        <v>26.46805463310617</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -16601,19 +16601,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04782404345183773</v>
+        <v>0.05157102486245422</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1742824847985343</v>
+        <v>0.1811416735189567</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3331198304931531</v>
+        <v>0.4979663056785693</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2186870902724661</v>
+        <v>0.2270925469108447</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>27.90827459139453</v>
+        <v>31.42641404056277</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -17233,19 +17233,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3204727804949942</v>
+        <v>17.39091076687417</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4616101992012521</v>
+        <v>3.138535767288486</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9219148781468827</v>
+        <v>6.965944423693139</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.566103153581566</v>
+        <v>4.170241092176108</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>70.7974192917042</v>
+        <v>150.7262508190676</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -17531,23 +17531,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05440701644416694</v>
+        <v>2.082030060338505</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1945981828662295</v>
+        <v>1.103597771074458</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4281556369823108</v>
+        <v>2.584778205261492</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2332531166869308</v>
+        <v>1.442924135337165</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>37.90071039289858</v>
+        <v>116.3718371945947</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -17575,23 +17575,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07978676141702425</v>
+        <v>0.4327414037330415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2116744498273832</v>
+        <v>0.4913125278956608</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5794690156748851</v>
+        <v>0.9411086796671239</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2824655048267385</v>
+        <v>0.6578308321544692</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>35.30876628710656</v>
+        <v>86.5242400251348</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -17619,23 +17619,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0574776731574184</v>
+        <v>0.05748734273394424</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1905682656129055</v>
+        <v>0.1804034473327799</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4941894232506477</v>
+        <v>0.5271947149706276</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2397450169605583</v>
+        <v>0.2397651824889182</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>32.04034189336659</v>
+        <v>33.08281237227736</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -18255,19 +18255,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.484098524186745</v>
+        <v>2.050889814315514</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.352197168205247</v>
+        <v>1.219409426162547</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.498886622576008</v>
+        <v>0.4974864040420964</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.576102320341781</v>
+        <v>1.432092809253477</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>67.07940140568964</v>
+        <v>65.10254717856965</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -18557,19 +18557,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.568495226938146</v>
+        <v>1.371716287720727</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9076223548612239</v>
+        <v>0.9245211740550296</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.332277357345371</v>
+        <v>0.3727272275576593</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.252395794842088</v>
+        <v>1.171202923374394</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>49.11770429621134</v>
+        <v>49.69463709486536</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -18601,19 +18601,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2375215541390165</v>
+        <v>0.2549364270745871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3479516511547833</v>
+        <v>0.3567477878753957</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1312602405573132</v>
+        <v>0.1686183921579849</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4873618308187629</v>
+        <v>0.504912296418484</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>11.69428986529561</v>
+        <v>13.79943232087483</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -18641,23 +18641,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.250077068715678</v>
+        <v>0.2383319105428035</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.039208328805433</v>
+        <v>0.3962821880820369</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3724552292682662</v>
+        <v>0.1681942815543191</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.500025689351912</v>
+        <v>0.4881924933290182</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>58.55809579536674</v>
+        <v>16.04125427403558</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -19277,19 +19277,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.538777535822787</v>
+        <v>5.963789434692505</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.33683181133731</v>
+        <v>2.117665777332831</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5231691445144733</v>
+        <v>0.9670199318275119</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.593354177771781</v>
+        <v>2.442087106286855</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>66.76209662868263</v>
+        <v>94.04003855953813</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -19579,19 +19579,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.201924432012106</v>
+        <v>2.346495038109693</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8636995573535919</v>
+        <v>1.134275373328119</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3288661259534524</v>
+        <v>0.4955885966873697</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.096323142149296</v>
+        <v>1.531827352579165</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>45.29640616174164</v>
+        <v>70.72083773461722</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -19623,19 +19623,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08683910825054511</v>
+        <v>0.5003370838849265</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2009404904556884</v>
+        <v>0.4334099830840233</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09248447861759052</v>
+        <v>0.2890005537643764</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2946847608047371</v>
+        <v>0.7073450953282467</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>8.216748265643048</v>
+        <v>17.1024877953187</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -19663,23 +19663,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2926181439322875</v>
+        <v>0.332455039390438</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4722833095787442</v>
+        <v>0.4612373770233076</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1803804484490844</v>
+        <v>0.2341517792026551</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5409419043966621</v>
+        <v>0.5765891426227501</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.08792147299406</v>
+        <v>19.81457895170575</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -20299,19 +20299,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.628996978939523</v>
+        <v>179.2451257157798</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.699153902367107</v>
+        <v>10.96007113650605</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7070140914754665</v>
+        <v>5.061361027810151</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>2.151510394801643</v>
+        <v>13.38824580427846</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>75.96923921471965</v>
+        <v>165.8279410408712</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -20597,23 +20597,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8354524616128727</v>
+        <v>22.4693584088892</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7429479498829107</v>
+        <v>3.883866374215485</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3040001393263642</v>
+        <v>1.784683726347033</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9140308865748863</v>
+        <v>4.740185482540657</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>36.64009934993369</v>
+        <v>140.9121388221979</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -20645,19 +20645,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1779362250055299</v>
+        <v>0.2855524960556102</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2280081950554788</v>
+        <v>0.3268721501376317</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1590148198077806</v>
+        <v>0.2465416672539625</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4218248748065124</v>
+        <v>0.5343711220262658</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>10.42032144977658</v>
+        <v>15.2435619489134</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -20685,23 +20685,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3112535648904372</v>
+        <v>0.3599741096722678</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4553874489532218</v>
+        <v>0.4713275306665012</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2247686224633828</v>
+        <v>0.2832810467045803</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5579010350325917</v>
+        <v>0.5999784243389655</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.42390418945806</v>
+        <v>21.02655349365256</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -21321,19 +21321,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04341458589039742</v>
+        <v>0.05014866965344706</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1445428511513713</v>
+        <v>0.1704945353012412</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2142102421693711</v>
+        <v>0.3479165336016965</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2083616708763812</v>
+        <v>0.2239389864526654</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>22.23480074343059</v>
+        <v>29.62194012512608</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -21351,19 +21351,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.04961951110629016</v>
+        <v>0.0538678135829578</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1533051782731318</v>
+        <v>0.1761911997260698</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2240312432950077</v>
+        <v>0.3698423060522325</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2227543739330165</v>
+        <v>0.2320944066171303</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>23.58102481995901</v>
+        <v>30.67135975938072</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -21709,23 +21709,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.01626412068555596</v>
+        <v>0.01965591517540422</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.09428049652114713</v>
+        <v>0.1067147150097888</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1462873593968914</v>
+        <v>0.2417381807237892</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1275308616984766</v>
+        <v>0.1401995548331171</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>14.46446569685087</v>
+        <v>19.40726207109448</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -21739,23 +21739,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.01732408339053343</v>
+        <v>0.02087754699142143</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.09561041021244271</v>
+        <v>0.1077466769772208</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1481749001183648</v>
+        <v>0.2468665008666282</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1316209838533865</v>
+        <v>0.1444906467264281</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>14.65541838103665</v>
+        <v>19.6769489473073</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -21771,23 +21771,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': LinearRegression()}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04636887577029054</v>
+        <v>0.1350815603243128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1561424743814251</v>
+        <v>0.3061860154499541</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2982393673957</v>
+        <v>0.7435961189348523</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2153343348616066</v>
+        <v>0.3675344342021749</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>24.94637399641815</v>
+        <v>54.82236002914313</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21805,19 +21805,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06348712228118186</v>
+        <v>0.1146865666246638</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2125157144966651</v>
+        <v>0.2737769173870951</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.4625505109508123</v>
+        <v>0.7128300925042385</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2519665102373366</v>
+        <v>0.3386540515403053</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>34.92749444347139</v>
+        <v>47.36527910905667</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -21833,23 +21833,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03498067233231802</v>
+        <v>0.04844742918113931</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1486286280595707</v>
+        <v>0.1760818051687765</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.274229024696644</v>
+        <v>0.471943176269339</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1870312068407784</v>
+        <v>0.2201077671985687</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>23.95070447758738</v>
+        <v>30.75130042223462</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -21863,23 +21863,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.03470034011323252</v>
+        <v>0.04993620973132817</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1489199066972939</v>
+        <v>0.178546869236813</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2811754034678188</v>
+        <v>0.4846211111097331</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.1862802730114827</v>
+        <v>0.2234641128488603</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>24.018282088658</v>
+        <v>31.08355939071804</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -22631,19 +22631,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2071804868137175</v>
+        <v>0.3176454993061504</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3791868153695973</v>
+        <v>0.4383584362835145</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1328792079269506</v>
+        <v>0.1705514176961385</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4551708325603888</v>
+        <v>0.5636004784474109</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>14.34147049008952</v>
+        <v>18.21110677577066</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -22661,19 +22661,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.2294224032125147</v>
+        <v>0.3421644112097224</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3858782181613516</v>
+        <v>0.4597314499737281</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1364640008718344</v>
+        <v>0.1770264805794362</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.4789805875111378</v>
+        <v>0.5849482124168962</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>15.15065008730068</v>
+        <v>19.19040218472155</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -23023,19 +23023,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2054368015013832</v>
+        <v>0.1367540607817545</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3395351354029613</v>
+        <v>0.2624435384091289</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1200942177367685</v>
+        <v>0.1111786783688161</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4532513667948318</v>
+        <v>0.3698027322529601</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>13.41021806206863</v>
+        <v>10.7714034365875</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -23053,19 +23053,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.1065461393940732</v>
+        <v>0.2270499717178548</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2522991814235244</v>
+        <v>0.3713501853733105</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.08813802663421985</v>
+        <v>0.147718213099727</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.3264140612689245</v>
+        <v>0.476497609351668</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>9.481211267009373</v>
+        <v>15.69290148439049</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -23085,19 +23085,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02745153353907671</v>
+        <v>0.1197116199427076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1225807324378112</v>
+        <v>0.197901443837945</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04508230636037268</v>
+        <v>0.1015461575992219</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1656850431966528</v>
+        <v>0.3459936703795427</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.476293752439913</v>
+        <v>8.273076033023056</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -23115,19 +23115,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.04268103637358021</v>
+        <v>0.1217230162946424</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1590394313479517</v>
+        <v>0.2099251878932182</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.05514993616679341</v>
+        <v>0.103649316295989</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2065938923917651</v>
+        <v>0.348888257604985</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>5.710347477858456</v>
+        <v>8.715945806439887</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -23147,19 +23147,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1343115638867867</v>
+        <v>0.1747724181223286</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2922510633470459</v>
+        <v>0.3337865687029212</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09984569292824948</v>
+        <v>0.1372366556595182</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3664854211108359</v>
+        <v>0.4180579124024907</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>10.79580866619531</v>
+        <v>13.52998918548508</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -23173,23 +23173,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.1439887663092494</v>
+        <v>0.4018715918493311</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3095782722739737</v>
+        <v>0.4329841181072095</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.106020920666743</v>
+        <v>0.1802987912699829</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.3794585172443088</v>
+        <v>0.6339334285627561</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>11.48028961768188</v>
+        <v>19.07781914609264</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -23942,19 +23942,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.262854712838441</v>
+        <v>0.3217437089816307</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3975265864081265</v>
+        <v>0.4275640149120981</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1777044543561136</v>
+        <v>0.218709474023145</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5126935857200098</v>
+        <v>0.5672245666238643</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>17.05390678053954</v>
+        <v>19.29066901430202</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -23972,19 +23972,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.3189140741720599</v>
+        <v>0.3540894187075478</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4197658409398502</v>
+        <v>0.4522472626187722</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1755740805081219</v>
+        <v>0.2095629565807926</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.5647247773668691</v>
+        <v>0.5950541309053722</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>18.41220921545399</v>
+        <v>20.4375348689317</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -24330,23 +24330,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2055444377183423</v>
+        <v>0.2828442990584856</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3211502173966321</v>
+        <v>0.3447237108295327</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1513083570554986</v>
+        <v>0.1918153590798367</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4533700891306596</v>
+        <v>0.5318310813204561</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>14.0971628643159</v>
+        <v>16.34860003166511</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -24360,23 +24360,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.1471800877445313</v>
+        <v>0.2525129063128244</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2618851421408249</v>
+        <v>0.3368911575417935</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1434105381526175</v>
+        <v>0.1839725188856666</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.3836405710356131</v>
+        <v>0.5025066231531923</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>11.67545271388901</v>
+        <v>15.97481805204947</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -24396,19 +24396,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2285147304615733</v>
+        <v>0.3084639005357592</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2582573156645616</v>
+        <v>0.2947238398440296</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1785870495765576</v>
+        <v>0.2478735590078119</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4780321437535067</v>
+        <v>0.5553952651362444</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>11.47030596905669</v>
+        <v>13.89127019523467</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -24426,19 +24426,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.192091609318073</v>
+        <v>0.3685563522218061</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2475154880490118</v>
+        <v>0.4178897931228649</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1650410020640811</v>
+        <v>0.2810519337886965</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.4382825678920769</v>
+        <v>0.6070884220785355</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>11.14083460992313</v>
+        <v>18.69476936739663</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -24458,19 +24458,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2520987339947774</v>
+        <v>0.304766936106517</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3789824254004397</v>
+        <v>0.4178048360673344</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1959915323893178</v>
+        <v>0.2556985944646618</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5020943477024785</v>
+        <v>0.5520570043994705</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>16.20949629322641</v>
+        <v>18.89221820437108</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -24488,19 +24488,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.2406687960789961</v>
+        <v>0.3279267483976115</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3714376819633638</v>
+        <v>0.4402628224186119</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1896855659305172</v>
+        <v>0.2665279086475204</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.4905800608249342</v>
+        <v>0.5726488875372163</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>15.95945514371748</v>
+        <v>19.7668906537082</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -25253,19 +25253,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2725582258735633</v>
+        <v>0.2650899034407772</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3907669164090621</v>
+        <v>0.3931233337837917</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.146870645889729</v>
+        <v>0.1688104430652253</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5220710927388752</v>
+        <v>0.5148688215854376</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>16.17481530244853</v>
+        <v>17.05750449057247</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -25283,19 +25283,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.3750051203792896</v>
+        <v>0.2748537625053411</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4555701442865698</v>
+        <v>0.394751152312353</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1676518601856147</v>
+        <v>0.1591349121972653</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.6123766164537062</v>
+        <v>0.5242649735633128</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>19.41860937348724</v>
+        <v>16.93116571955705</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -25641,23 +25641,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1436495652104431</v>
+        <v>0.2149361888489005</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2582882737002909</v>
+        <v>0.3190351121860437</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09974897874349385</v>
+        <v>0.151783701244064</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.3790112995814809</v>
+        <v>0.4636121103345991</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>10.42115667605949</v>
+        <v>14.18430236171302</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -25671,23 +25671,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.115925257417144</v>
+        <v>0.1757857522155184</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2582320477578952</v>
+        <v>0.2925328269954528</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.09677087651310126</v>
+        <v>0.1358026292829669</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.3404779837480598</v>
+        <v>0.4192681149521371</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>10.15790145027591</v>
+        <v>12.87513133152153</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -25707,19 +25707,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1000410792517736</v>
+        <v>0.1893482432554714</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1588779984885042</v>
+        <v>0.2108536704995302</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08299664317772554</v>
+        <v>0.1634087229078222</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3162927113478489</v>
+        <v>0.435141635856041</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.691527861965713</v>
+        <v>9.952084470575045</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -25737,19 +25737,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1110619367800196</v>
+        <v>0.2143220572278746</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2096117715077645</v>
+        <v>0.2824331331270156</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.09847409281170999</v>
+        <v>0.1860181717215641</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.333259563673752</v>
+        <v>0.4629493030860665</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>8.496202583880017</v>
+        <v>12.59440992969873</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -25769,19 +25769,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1673844024057621</v>
+        <v>0.229277514959312</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3198078026175152</v>
+        <v>0.3740189646510812</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1290583014245159</v>
+        <v>0.1998040965896693</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4091263892805769</v>
+        <v>0.478829317146843</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>12.6614228715667</v>
+        <v>16.23610869968872</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -25799,19 +25799,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.1569261060793982</v>
+        <v>0.2300506513389552</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3205880291703995</v>
+        <v>0.3697530074367587</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1278534595171563</v>
+        <v>0.1938401363441086</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.396138998432871</v>
+        <v>0.4796359570955405</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>12.69224473566183</v>
+        <v>16.08617734590415</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -26566,19 +26566,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.000454163558507767</v>
+        <v>0.07372843188919308</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0177410220189235</v>
+        <v>0.223246500710495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02508164349120531</v>
+        <v>0.4105803787633778</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.02131111349760418</v>
+        <v>0.2715297992655559</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>2.541817570878555</v>
+        <v>42.26660796637142</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -26596,19 +26596,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0004379589035886209</v>
+        <v>0.0779282658142314</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.01747269233834611</v>
+        <v>0.2298959795813223</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.02464960645942961</v>
+        <v>0.4310089391338408</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.02092746768217839</v>
+        <v>0.2791563465412015</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>2.492702097003064</v>
+        <v>42.22480897465227</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -26954,23 +26954,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0167963570940254</v>
+        <v>0.04442677282292391</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1070119000438008</v>
+        <v>0.1654932278077518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1407593624401377</v>
+        <v>0.3369822634392273</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1296007603913858</v>
+        <v>0.2107765945804323</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>14.96945924807099</v>
+        <v>27.56725548454924</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -26984,23 +26984,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 50}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.01024837906955385</v>
+        <v>0.0528626526080184</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.07639824962019055</v>
+        <v>0.1677836466997958</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1009940389349075</v>
+        <v>0.3355249838717979</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1012342781351941</v>
+        <v>0.2299187956823417</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>10.35955615595404</v>
+        <v>28.44320867735647</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -27020,19 +27020,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001131168592912222</v>
+        <v>0.05979149760507677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02949458832891889</v>
+        <v>0.2100407043549815</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04148651128244669</v>
+        <v>0.4115825575934102</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03363284990767541</v>
+        <v>0.2445230001555616</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.170639198895378</v>
+        <v>34.65313915638852</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -27046,23 +27046,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.006756307445370179</v>
+        <v>0.08982077840422092</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.06663204242409754</v>
+        <v>0.2364382235555146</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.09277706417042972</v>
+        <v>0.4679071123607655</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.08219676055277469</v>
+        <v>0.2997011484866565</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>9.342146779488358</v>
+        <v>41.23643814648402</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -27078,23 +27078,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04001435735692079</v>
+        <v>0.02874319276325368</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1565718134789168</v>
+        <v>0.1219100698148071</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2041223535982498</v>
+        <v>0.3337848994529352</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2000358901720408</v>
+        <v>0.1695381749437385</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>22.54896658180764</v>
+        <v>19.89167692597886</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -27108,23 +27108,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.04001435735692079</v>
+        <v>0.04322328802579688</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1565718134789168</v>
+        <v>0.1632524188317449</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2041223535982498</v>
+        <v>0.3413974975559899</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2000358901720408</v>
+        <v>0.2079021116434291</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>22.54896658180764</v>
+        <v>26.7591790866523</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -27880,19 +27880,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.02758662928970269</v>
+        <v>0.04180408021858844</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1321066382779749</v>
+        <v>0.1493542715157621</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2535926720411364</v>
+        <v>0.3502791542049309</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1660922312743817</v>
+        <v>0.2044604612598447</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>23.31617029553502</v>
+        <v>26.47374638364806</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -27910,19 +27910,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.02469680091046635</v>
+        <v>0.04224561065424653</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1280144974433279</v>
+        <v>0.1541365505355992</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2623086816109574</v>
+        <v>0.356209637066776</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1571521584658205</v>
+        <v>0.20553737045668</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>22.73841995691788</v>
+        <v>27.05952379696041</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -28268,23 +28268,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04016080243767152</v>
+        <v>0.04878244856930452</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1557396186726896</v>
+        <v>0.1697353047991726</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3915690107965282</v>
+        <v>0.4453662937136353</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2004016028819917</v>
+        <v>0.2208674909743499</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>26.93781851405554</v>
+        <v>31.28040118498394</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -28302,19 +28302,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.04295769822754651</v>
+        <v>0.04484005812424031</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1538035917341412</v>
+        <v>0.1619931373298232</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.4099731077906327</v>
+        <v>0.4781155194754966</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2072623898046785</v>
+        <v>0.2117547121653738</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>26.40942680057451</v>
+        <v>29.7732240367114</v>
       </c>
     </row>
     <row r="14">
@@ -28330,53 +28330,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': LinearRegression()}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.263288904282963</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.4280497387409423</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.242264518654509</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.5131168524643904</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>70.44286364060257</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.0978588407299984</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.2653689116209608</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.6520531771375271</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.3128239772300045</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>44.37312622016761</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.149815979783995</v>
+        <v>0.1044716329047626</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3194220329006894</v>
+        <v>0.2585955542465728</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.8732171691233883</v>
+        <v>0.8179840026669477</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3870606926361743</v>
+        <v>0.323220718557401</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>51.47152946157541</v>
+        <v>45.25415392782728</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -28396,19 +28396,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0574776731574184</v>
+        <v>0.06064513205659805</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1905682656129055</v>
+        <v>0.1971581782670922</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4941894232506477</v>
+        <v>0.6198237398719608</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2397450169605583</v>
+        <v>0.2462623236644169</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>32.04034189336659</v>
+        <v>34.950675367164</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -28426,19 +28426,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0574776731574184</v>
+        <v>0.06064513205659805</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1905682656129055</v>
+        <v>0.1971581782670922</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.4941894232506477</v>
+        <v>0.6198237398719608</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2397450169605583</v>
+        <v>0.2462623236644169</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>32.04034189336659</v>
+        <v>34.950675367164</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -29192,19 +29192,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01870697751576589</v>
+        <v>0.06466401720689435</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09457110804069729</v>
+        <v>0.1979225240898338</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1348619671304635</v>
+        <v>0.4010767487644498</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1367734532567116</v>
+        <v>0.2542912055240888</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>14.10740453360395</v>
+        <v>33.65959127803013</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -29222,19 +29222,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.01811890467081841</v>
+        <v>0.06314226592876833</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.09485367532387184</v>
+        <v>0.198167959354573</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1325752997805906</v>
+        <v>0.3997657169742829</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1346064807905563</v>
+        <v>0.2512812486612726</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>13.89687004746659</v>
+        <v>33.83551104780032</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -29584,19 +29584,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03853056572238314</v>
+        <v>0.06021912742507592</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1502966191687709</v>
+        <v>0.1768285884899715</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2425711046924398</v>
+        <v>0.4217250854729062</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1962920419232098</v>
+        <v>0.2453958586143538</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>23.85763821199179</v>
+        <v>31.67390789759406</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -29610,23 +29610,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02872075437694769</v>
+        <v>0.06007025427170679</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1202368498376661</v>
+        <v>0.1884911975780213</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2279592147920032</v>
+        <v>0.37096592525538</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1694719869976973</v>
+        <v>0.2450923382558231</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>19.34196386458278</v>
+        <v>34.04911151381647</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -29642,23 +29642,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1045686530360048</v>
+        <v>0.1200848299056822</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2481008751257079</v>
+        <v>0.2850500569433136</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5645569703056685</v>
+        <v>0.8287578312092569</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3233707671327214</v>
+        <v>0.3465325813046764</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>36.45034929866733</v>
+        <v>51.10390520131106</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -29672,23 +29672,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1117711301914926</v>
+        <v>0.08309854819118789</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2779691041684946</v>
+        <v>0.2283503605607551</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5651522577637781</v>
+        <v>0.7425206044509489</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3343218960694806</v>
+        <v>0.2882681879625081</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>43.9597767319293</v>
+        <v>38.3787224167971</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -29708,19 +29708,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04782404345183773</v>
+        <v>0.05157102486245422</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1742824847985343</v>
+        <v>0.1811416735189567</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3331198304931531</v>
+        <v>0.4979663056785693</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2186870902724661</v>
+        <v>0.2270925469108447</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>27.90827459139453</v>
+        <v>31.42641404056277</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -29734,23 +29734,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.04782404345183773</v>
+        <v>0.06386539836580142</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1742824847985343</v>
+        <v>0.2100552865468827</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.3331198304931531</v>
+        <v>0.5127873608939719</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2186870902724661</v>
+        <v>0.2527160429529582</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>27.90827459139453</v>
+        <v>36.67592519261159</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
